--- a/ERD/h_a_ERD.xlsx
+++ b/ERD/h_a_ERD.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents1\GitHub\Health_and_Avocados\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BDCFC3-C72C-414E-8A3D-54C43E8E0652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC152E-A835-46FB-876F-ECCF71E4A0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Prices" sheetId="3" r:id="rId2"/>
-    <sheet name="ERD Diagram" sheetId="4" r:id="rId3"/>
+    <sheet name="Production" sheetId="5" r:id="rId3"/>
+    <sheet name="ERD Diagram" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -339,6 +340,57 @@
   </si>
   <si>
     <t>Kaggle_avg_prices</t>
+  </si>
+  <si>
+    <t>created from Week</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>mexico</t>
+  </si>
+  <si>
+    <t>peru</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>AB_2018_AvoProducitonPerWeek</t>
+  </si>
+  <si>
+    <t>Week date</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Volume in units</t>
+  </si>
+  <si>
+    <t>2018_production</t>
+  </si>
+  <si>
+    <t>2019_production</t>
+  </si>
+  <si>
+    <t>2020_production</t>
+  </si>
+  <si>
+    <t>AB_2019_AvoProducitonPerWeek</t>
+  </si>
+  <si>
+    <t>AB_2020_AvoProducitonPerWeek</t>
   </si>
 </sst>
 </file>
@@ -499,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,18 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -533,6 +573,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2797,6 +2851,1351 @@
         <a:xfrm>
           <a:off x="5581855" y="8767097"/>
           <a:ext cx="0" cy="342285"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529662</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>124626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60089</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>129949</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Flowchart: Decision 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A7D2AF-558D-41D5-9E31-41F1889478F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5888587" y="12079836"/>
+          <a:ext cx="749983" cy="788688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525210</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>115724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55637</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>121048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Flowchart: Decision 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4416120B-02B0-4524-9DB0-3BF68FD1687C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5884135" y="14403224"/>
+          <a:ext cx="749983" cy="788688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>520760</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>124626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51187</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>129950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Flowchart: Decision 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC3F730-115A-4E11-9C24-7921C709CDC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5879685" y="16726612"/>
+          <a:ext cx="749983" cy="788688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60089</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600876</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>120176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68935A1-5DF6-45B7-9CD3-B6BF6CD17B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638570" y="12474180"/>
+          <a:ext cx="540787" cy="1790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66764</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>111274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607551</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>113064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041A720F-BB15-41D4-8B7C-5EBE9F0D22F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6645245" y="14799358"/>
+          <a:ext cx="540787" cy="1790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57862</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>115725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598649</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>117515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96818D74-14D4-49F4-9CAC-D74E9B3D1097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6636343" y="17118295"/>
+          <a:ext cx="540787" cy="1790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290424</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>129949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>294876</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>115724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591D97F6-D4A2-479C-8B43-AFB731556F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6259127" y="12868524"/>
+          <a:ext cx="4452" cy="1534700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>294876</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>117983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338762</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>124626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6E371A-F1EC-47DD-8E4C-04B2616C8E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="117" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6263579" y="9184537"/>
+          <a:ext cx="43886" cy="2895299"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480701</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>160234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480701</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>103084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3222068B-E5B1-4851-93FD-198F2F88C351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7059182" y="12315736"/>
+          <a:ext cx="0" cy="334533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489603</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>169136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>489603</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>111987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22473BB-2DF6-4847-AB26-5E46C2F72A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7068084" y="14656928"/>
+          <a:ext cx="0" cy="334533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480701</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>169136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480701</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>111987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E42160-7FCA-40AA-8F40-9070C05861FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7059182" y="16971414"/>
+          <a:ext cx="0" cy="334533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285974</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>121048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290424</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>124626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B070BB53-6EB9-4FF0-A343-854FAEE674E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6254677" y="15191912"/>
+          <a:ext cx="4450" cy="1534700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556368</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>124627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86794</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>129951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Flowchart: Decision 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C92767D-C90C-4E56-879A-D2C43D872860}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9845468" y="16726613"/>
+          <a:ext cx="749983" cy="788688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>556368</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>115724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86794</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>121048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Flowchart: Decision 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF694BF7-18C0-4793-89B2-56FB5E826C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9845468" y="14403224"/>
+          <a:ext cx="749983" cy="788688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551917</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>115724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82343</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>121047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Flowchart: Decision 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC69839-1070-45EE-BAD8-0FE6467E796B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9841017" y="12070934"/>
+          <a:ext cx="749983" cy="788688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4450</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>102372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>545237</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9704664-666D-4B9F-97CA-A53B17E1EA9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9293550" y="12458166"/>
+          <a:ext cx="540787" cy="1790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284859</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>106823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>540787</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>108613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBA007E-270E-4AD9-86A0-F24D95DACC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9289100" y="14794907"/>
+          <a:ext cx="540787" cy="1790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4451</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>111274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>545238</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>113064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E818AF-B206-412D-8D82-070384212A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9293551" y="17113844"/>
+          <a:ext cx="540787" cy="1790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320466</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>124627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324916</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>128205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461EFF4C-74CA-4756-AE78-DB141A765AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10219345" y="15195491"/>
+          <a:ext cx="4450" cy="1534700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320467</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>124626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>324919</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>110401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EF4AA08-686C-48A7-AC7C-E297F403A6DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10219346" y="12863201"/>
+          <a:ext cx="4452" cy="1534700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133528</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133528</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>85279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ABECAA-E1D2-49D1-A7EC-A2FA36B06A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9422628" y="12297931"/>
+          <a:ext cx="0" cy="334533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129077</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>137979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129077</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>80830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6412BC09-EB0C-4C5A-A57B-F526D559C0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9418177" y="14625771"/>
+          <a:ext cx="0" cy="334533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115724</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>137979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>115724</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>80830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0AFF3D-B653-4777-98D3-3E9DF02C79B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9404824" y="16940257"/>
+          <a:ext cx="0" cy="334533"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>308036</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317130</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>115724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6C4D44-54A7-4B79-8D78-96FB166D1920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="2"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10206915" y="2644344"/>
+          <a:ext cx="9094" cy="9426590"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82343</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>109484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>232911</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>111766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A055CC49-0D45-4DE7-9305-41D3A6E107C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591000" y="12465278"/>
+          <a:ext cx="760346" cy="785647"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3137,15 +4536,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3216,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5A6CCC-1CD5-40DC-89A7-7AF9B2A6CDD2}">
   <dimension ref="A2:Y76"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,33 +4645,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="10" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="13"/>
-      <c r="Q2" s="10" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="Q2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="13"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3355,7 +4754,7 @@
       <c r="E4" s="5">
         <v>201801</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -3376,7 +4775,7 @@
       <c r="M4" s="5">
         <v>201801</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -3397,7 +4796,7 @@
       <c r="U4" s="5">
         <v>201801</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="10" t="s">
         <v>93</v>
       </c>
       <c r="W4" s="6" t="s">
@@ -3418,7 +4817,7 @@
       <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -3437,7 +4836,7 @@
       <c r="M5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -3456,7 +4855,7 @@
       <c r="U5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W5" s="6" t="s">
@@ -3470,14 +4869,14 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -3489,14 +4888,14 @@
       <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -3508,14 +4907,14 @@
       <c r="R6" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="10" t="s">
         <v>31</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="18">
+      <c r="U6" s="14">
         <v>42008</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W6" s="6" t="s">
@@ -3533,10 +4932,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>43101</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3552,10 +4951,10 @@
         <v>10</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -3574,7 +4973,7 @@
       <c r="U7">
         <v>0.93</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W7" s="6" t="s">
@@ -3588,14 +4987,14 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3607,14 +5006,14 @@
       <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -3626,14 +5025,14 @@
       <c r="R8" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8">
         <v>5777334.9000000004</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W8" s="6" t="s">
@@ -3647,14 +5046,14 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5">
         <v>0.93</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3666,14 +5065,14 @@
       <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -3685,14 +5084,14 @@
       <c r="R9">
         <v>4046</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9">
         <v>2843648.26</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W9" s="6" t="s">
@@ -3706,14 +5105,14 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5">
         <v>7132711.2300000004</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -3725,14 +5124,14 @@
       <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="17">
+      <c r="M10" s="13">
         <v>42764</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -3744,14 +5143,14 @@
       <c r="R10">
         <v>4225</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10">
         <v>2267755.2599999998</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W10" s="6" t="s">
@@ -3765,14 +5164,14 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11">
         <v>2280934.17</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -3784,14 +5183,14 @@
       <c r="J11" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11">
         <v>23281600.600000001</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -3803,14 +5202,14 @@
       <c r="R11">
         <v>4770</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11">
         <v>137479.64000000001</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W11" s="6" t="s">
@@ -3824,14 +5223,14 @@
       <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12">
         <v>3201737.11</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3843,14 +5242,14 @@
       <c r="J12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12">
         <v>26587539.989999998</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="N12" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -3862,14 +5261,14 @@
       <c r="R12" t="s">
         <v>88</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12">
         <v>528451.74</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="V12" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W12" s="6" t="s">
@@ -3883,14 +5282,14 @@
       <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13">
         <v>111845.09</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3902,14 +5301,14 @@
       <c r="J13" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13">
         <v>0.14199794299999999</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="N13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O13" s="6" t="s">
@@ -3921,14 +5320,14 @@
       <c r="R13" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13">
         <v>477193.38</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W13" s="6" t="s">
@@ -3942,14 +5341,14 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14">
         <v>1538194.86</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3961,14 +5360,14 @@
       <c r="J14" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14">
         <v>23413324.23</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O14" s="6" t="s">
@@ -3980,14 +5379,14 @@
       <c r="R14" t="s">
         <v>90</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14">
         <v>47882.559999999998</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W14" s="6" t="s">
@@ -4001,14 +5400,14 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15">
         <v>1461095.1</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -4020,14 +5419,14 @@
       <c r="J15" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15">
         <v>25449925.25</v>
       </c>
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="6" t="s">
@@ -4039,14 +5438,14 @@
       <c r="R15" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="14" t="s">
+      <c r="S15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15">
         <v>3375.8</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W15" s="6" t="s">
@@ -4060,14 +5459,14 @@
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16">
         <v>20553.599999999999</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -4079,14 +5478,14 @@
       <c r="J16" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16">
         <v>8.6984701999999997E-2</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O16" s="6" t="s">
@@ -4098,14 +5497,14 @@
       <c r="R16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="14" t="s">
+      <c r="S16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="10" t="s">
         <v>94</v>
       </c>
       <c r="W16" s="6" t="s">
@@ -4119,14 +5518,14 @@
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8">
         <v>56546.16</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="9" t="s">
@@ -4138,14 +5537,14 @@
       <c r="J17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17">
         <v>1.0056578430000001</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O17" s="6" t="s">
@@ -4157,14 +5556,14 @@
       <c r="R17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="S17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="8">
         <v>2015</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="W17" s="9" t="s">
@@ -4178,12 +5577,12 @@
       <c r="J18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="14"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="5"/>
       <c r="M18">
         <v>0.95721248599999997</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="10" t="s">
         <v>62</v>
       </c>
       <c r="O18" s="6" t="s">
@@ -4191,36 +5590,36 @@
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="14"/>
+      <c r="S18" s="10"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="14"/>
+      <c r="V18" s="10"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="I19" s="7">
         <v>16</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8">
         <v>-4.8172802000000001E-2</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="12" t="s">
         <v>62</v>
       </c>
       <c r="O19" s="9" t="s">
@@ -4228,10 +5627,10 @@
       </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="14"/>
+      <c r="S19" s="10"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="14"/>
+      <c r="V19" s="10"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -4275,21 +5674,21 @@
       <c r="E21" s="5">
         <v>201801</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="13"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -4305,7 +5704,7 @@
       <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -4340,14 +5739,14 @@
       <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -4368,7 +5767,7 @@
       <c r="M23" s="5">
         <v>201801</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O23" s="6" t="s">
@@ -4386,10 +5785,10 @@
         <v>10</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>43101</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4408,7 +5807,7 @@
       <c r="M24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O24" s="6" t="s">
@@ -4422,14 +5821,14 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -4441,14 +5840,14 @@
       <c r="J25" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O25" s="6" t="s">
@@ -4462,14 +5861,14 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
         <v>0.93</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -4485,10 +5884,10 @@
         <v>10</v>
       </c>
       <c r="L26" s="5"/>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O26" s="6" t="s">
@@ -4502,14 +5901,14 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5">
         <v>7132711.2300000004</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -4521,14 +5920,14 @@
       <c r="J27" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="14" t="s">
+      <c r="M27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="14" t="s">
+      <c r="N27" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O27" s="6" t="s">
@@ -4542,14 +5941,14 @@
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28">
         <v>2280934.17</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -4561,14 +5960,14 @@
       <c r="J28" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L28" s="5"/>
-      <c r="M28" s="14" t="s">
+      <c r="M28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N28" s="14" t="s">
+      <c r="N28" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O28" s="6" t="s">
@@ -4582,14 +5981,14 @@
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29">
         <v>3201737.11</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -4601,14 +6000,14 @@
       <c r="J29" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="K29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="17">
+      <c r="M29" s="13">
         <v>42764</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O29" s="6" t="s">
@@ -4622,14 +6021,14 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30">
         <v>111845.09</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -4641,14 +6040,14 @@
       <c r="J30" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30">
         <v>23281600.600000001</v>
       </c>
-      <c r="N30" s="14" t="s">
+      <c r="N30" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O30" s="6" t="s">
@@ -4662,14 +6061,14 @@
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31">
         <v>1538194.86</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -4681,14 +6080,14 @@
       <c r="J31" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="14" t="s">
+      <c r="K31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31">
         <v>26587539.989999998</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="N31" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O31" s="6" t="s">
@@ -4702,14 +6101,14 @@
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32">
         <v>1461095.1</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -4721,14 +6120,14 @@
       <c r="J32" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32">
         <v>0.14199794299999999</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N32" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O32" s="6" t="s">
@@ -4742,14 +6141,14 @@
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33">
         <v>20553.599999999999</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -4761,14 +6160,14 @@
       <c r="J33" t="s">
         <v>57</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33">
         <v>23413324.23</v>
       </c>
-      <c r="N33" s="14" t="s">
+      <c r="N33" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O33" s="6" t="s">
@@ -4782,14 +6181,14 @@
       <c r="B34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8">
         <v>56546.16</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="G34" s="9" t="s">
@@ -4801,14 +6200,14 @@
       <c r="J34" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34">
         <v>25449925.25</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N34" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O34" s="6" t="s">
@@ -4822,14 +6221,14 @@
       <c r="J35" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="14" t="s">
+      <c r="K35" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35">
         <v>8.6984701999999997E-2</v>
       </c>
-      <c r="N35" s="14" t="s">
+      <c r="N35" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O35" s="6" t="s">
@@ -4837,29 +6236,29 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="13"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="I36" s="4">
         <v>14</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="14" t="s">
+      <c r="K36" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36">
         <v>1.0056578430000001</v>
       </c>
-      <c r="N36" s="14" t="s">
+      <c r="N36" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O36" s="6" t="s">
@@ -4894,12 +6293,12 @@
       <c r="J37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="14"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="5"/>
       <c r="M37">
         <v>0.95721248599999997</v>
       </c>
-      <c r="N37" s="14" t="s">
+      <c r="N37" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O37" s="6" t="s">
@@ -4922,7 +6321,7 @@
       <c r="E38" s="5">
         <v>201801</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -4934,12 +6333,12 @@
       <c r="J38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="16"/>
+      <c r="K38" s="12"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8">
         <v>-4.8172802000000001E-2</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O38" s="9" t="s">
@@ -4960,7 +6359,7 @@
       <c r="E39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -4974,28 +6373,28 @@
       <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="13"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -5008,10 +6407,10 @@
         <v>10</v>
       </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="15">
+      <c r="E41" s="11">
         <v>43101</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -5046,14 +6445,14 @@
       <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -5074,7 +6473,7 @@
       <c r="M42" s="5">
         <v>201801</v>
       </c>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O42" s="6" t="s">
@@ -5088,14 +6487,14 @@
       <c r="B43" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5">
         <v>0.93</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -5114,7 +6513,7 @@
       <c r="M43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="N43" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O43" s="6" t="s">
@@ -5128,14 +6527,14 @@
       <c r="B44" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5">
         <v>7132711.2300000004</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -5147,14 +6546,14 @@
       <c r="J44" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="14" t="s">
+      <c r="K44" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O44" s="6" t="s">
@@ -5168,14 +6567,14 @@
       <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45">
         <v>2280934.17</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -5191,10 +6590,10 @@
         <v>10</v>
       </c>
       <c r="L45" s="5"/>
-      <c r="M45" s="15" t="s">
+      <c r="M45" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N45" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O45" s="6" t="s">
@@ -5208,14 +6607,14 @@
       <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46">
         <v>3201737.11</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -5227,14 +6626,14 @@
       <c r="J46" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="K46" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="5"/>
-      <c r="M46" s="14" t="s">
+      <c r="M46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="N46" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O46" s="6" t="s">
@@ -5248,14 +6647,14 @@
       <c r="B47" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47">
         <v>111845.09</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -5267,14 +6666,14 @@
       <c r="J47" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L47" s="5"/>
-      <c r="M47" s="14" t="s">
+      <c r="M47" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="N47" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O47" s="6" t="s">
@@ -5288,14 +6687,14 @@
       <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48">
         <v>1538194.86</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -5307,14 +6706,14 @@
       <c r="J48" t="s">
         <v>16</v>
       </c>
-      <c r="K48" s="14" t="s">
+      <c r="K48" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L48" s="5"/>
-      <c r="M48" s="17">
+      <c r="M48" s="13">
         <v>42764</v>
       </c>
-      <c r="N48" s="14" t="s">
+      <c r="N48" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O48" s="6" t="s">
@@ -5328,14 +6727,14 @@
       <c r="B49" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49">
         <v>1461095.1</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -5347,14 +6746,14 @@
       <c r="J49" t="s">
         <v>54</v>
       </c>
-      <c r="K49" s="14" t="s">
+      <c r="K49" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49">
         <v>23281600.600000001</v>
       </c>
-      <c r="N49" s="14" t="s">
+      <c r="N49" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O49" s="6" t="s">
@@ -5368,14 +6767,14 @@
       <c r="B50" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50">
         <v>20553.599999999999</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -5387,14 +6786,14 @@
       <c r="J50" t="s">
         <v>55</v>
       </c>
-      <c r="K50" s="14" t="s">
+      <c r="K50" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50">
         <v>26587539.989999998</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N50" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O50" s="6" t="s">
@@ -5408,14 +6807,14 @@
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8">
         <v>56546.16</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G51" s="9" t="s">
@@ -5427,14 +6826,14 @@
       <c r="J51" t="s">
         <v>56</v>
       </c>
-      <c r="K51" s="14" t="s">
+      <c r="K51" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51">
         <v>0.14199794299999999</v>
       </c>
-      <c r="N51" s="14" t="s">
+      <c r="N51" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O51" s="6" t="s">
@@ -5448,14 +6847,14 @@
       <c r="J52" t="s">
         <v>57</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52">
         <v>23413324.23</v>
       </c>
-      <c r="N52" s="14" t="s">
+      <c r="N52" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O52" s="6" t="s">
@@ -5469,14 +6868,14 @@
       <c r="J53" t="s">
         <v>58</v>
       </c>
-      <c r="K53" s="14" t="s">
+      <c r="K53" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53">
         <v>25449925.25</v>
       </c>
-      <c r="N53" s="14" t="s">
+      <c r="N53" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O53" s="6" t="s">
@@ -5490,14 +6889,14 @@
       <c r="J54" t="s">
         <v>59</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54">
         <v>8.6984701999999997E-2</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O54" s="6" t="s">
@@ -5511,14 +6910,14 @@
       <c r="J55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K55" s="14" t="s">
+      <c r="K55" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55">
         <v>1.0056578430000001</v>
       </c>
-      <c r="N55" s="14" t="s">
+      <c r="N55" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O55" s="6" t="s">
@@ -5532,12 +6931,12 @@
       <c r="J56" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="14"/>
+      <c r="K56" s="10"/>
       <c r="L56" s="5"/>
       <c r="M56">
         <v>0.95721248599999997</v>
       </c>
-      <c r="N56" s="14" t="s">
+      <c r="N56" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O56" s="6" t="s">
@@ -5551,12 +6950,12 @@
       <c r="J57" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K57" s="16"/>
+      <c r="K57" s="12"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8">
         <v>-4.8172802000000001E-2</v>
       </c>
-      <c r="N57" s="14" t="s">
+      <c r="N57" s="10" t="s">
         <v>82</v>
       </c>
       <c r="O57" s="9" t="s">
@@ -5564,15 +6963,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="13"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="21"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I60" s="1" t="s">
@@ -5613,7 +7012,7 @@
       <c r="M61" s="5">
         <v>201801</v>
       </c>
-      <c r="N61" s="14" t="s">
+      <c r="N61" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O61" s="6" t="s">
@@ -5634,7 +7033,7 @@
       <c r="M62" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N62" s="14" t="s">
+      <c r="N62" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O62" s="6" t="s">
@@ -5648,14 +7047,14 @@
       <c r="J63" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N63" s="14" t="s">
+      <c r="N63" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O63" s="6" t="s">
@@ -5673,10 +7072,10 @@
         <v>10</v>
       </c>
       <c r="L64" s="5"/>
-      <c r="M64" s="15" t="s">
+      <c r="M64" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N64" s="14" t="s">
+      <c r="N64" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O64" s="6" t="s">
@@ -5690,14 +7089,14 @@
       <c r="J65" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="10" t="s">
         <v>31</v>
       </c>
       <c r="L65" s="5"/>
-      <c r="M65" s="14" t="s">
+      <c r="M65" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N65" s="14" t="s">
+      <c r="N65" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O65" s="6" t="s">
@@ -5711,14 +7110,14 @@
       <c r="J66" t="s">
         <v>53</v>
       </c>
-      <c r="K66" s="14" t="s">
+      <c r="K66" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L66" s="5"/>
-      <c r="M66" s="14" t="s">
+      <c r="M66" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="N66" s="14" t="s">
+      <c r="N66" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O66" s="6" t="s">
@@ -5732,14 +7131,14 @@
       <c r="J67" t="s">
         <v>16</v>
       </c>
-      <c r="K67" s="14" t="s">
+      <c r="K67" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L67" s="5"/>
-      <c r="M67" s="17">
+      <c r="M67" s="13">
         <v>42764</v>
       </c>
-      <c r="N67" s="14" t="s">
+      <c r="N67" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O67" s="6" t="s">
@@ -5753,14 +7152,14 @@
       <c r="J68" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="14" t="s">
+      <c r="K68" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68">
         <v>23281600.600000001</v>
       </c>
-      <c r="N68" s="14" t="s">
+      <c r="N68" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O68" s="6" t="s">
@@ -5774,14 +7173,14 @@
       <c r="J69" t="s">
         <v>55</v>
       </c>
-      <c r="K69" s="14" t="s">
+      <c r="K69" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L69" s="5"/>
       <c r="M69">
         <v>26587539.989999998</v>
       </c>
-      <c r="N69" s="14" t="s">
+      <c r="N69" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O69" s="6" t="s">
@@ -5795,14 +7194,14 @@
       <c r="J70" t="s">
         <v>56</v>
       </c>
-      <c r="K70" s="14" t="s">
+      <c r="K70" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L70" s="5"/>
       <c r="M70">
         <v>0.14199794299999999</v>
       </c>
-      <c r="N70" s="14" t="s">
+      <c r="N70" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O70" s="6" t="s">
@@ -5816,14 +7215,14 @@
       <c r="J71" t="s">
         <v>57</v>
       </c>
-      <c r="K71" s="14" t="s">
+      <c r="K71" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L71" s="5"/>
       <c r="M71">
         <v>23413324.23</v>
       </c>
-      <c r="N71" s="14" t="s">
+      <c r="N71" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O71" s="6" t="s">
@@ -5837,14 +7236,14 @@
       <c r="J72" t="s">
         <v>58</v>
       </c>
-      <c r="K72" s="14" t="s">
+      <c r="K72" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L72" s="5"/>
       <c r="M72">
         <v>25449925.25</v>
       </c>
-      <c r="N72" s="14" t="s">
+      <c r="N72" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O72" s="6" t="s">
@@ -5858,14 +7257,14 @@
       <c r="J73" t="s">
         <v>59</v>
       </c>
-      <c r="K73" s="14" t="s">
+      <c r="K73" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73">
         <v>8.6984701999999997E-2</v>
       </c>
-      <c r="N73" s="14" t="s">
+      <c r="N73" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O73" s="6" t="s">
@@ -5879,14 +7278,14 @@
       <c r="J74" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K74" s="14" t="s">
+      <c r="K74" s="10" t="s">
         <v>32</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74">
         <v>1.0056578430000001</v>
       </c>
-      <c r="N74" s="14" t="s">
+      <c r="N74" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O74" s="6" t="s">
@@ -5900,12 +7299,12 @@
       <c r="J75" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="14"/>
+      <c r="K75" s="10"/>
       <c r="L75" s="5"/>
       <c r="M75">
         <v>0.95721248599999997</v>
       </c>
-      <c r="N75" s="14" t="s">
+      <c r="N75" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O75" s="6" t="s">
@@ -5919,12 +7318,12 @@
       <c r="J76" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="K76" s="16"/>
+      <c r="K76" s="12"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8">
         <v>-4.8172802000000001E-2</v>
       </c>
-      <c r="N76" s="14" t="s">
+      <c r="N76" s="10" t="s">
         <v>84</v>
       </c>
       <c r="O76" s="9" t="s">
@@ -5947,11 +7346,716 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2456E2A-4171-462D-9521-D7CAC5DA6B27}">
+  <dimension ref="A2:G36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>201801</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="23">
+        <v>43107</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="24">
+        <v>45670156</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="24">
+        <v>899349</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="24">
+        <v>519433</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="24">
+        <v>44251374</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5">
+        <v>201801</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="23">
+        <v>43107</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="24">
+        <v>45670156</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="24">
+        <v>899349</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="24">
+        <v>519433</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="24">
+        <v>44251374</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5">
+        <v>201801</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="23">
+        <v>43107</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="24">
+        <v>45670156</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="24">
+        <v>899349</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="24">
+        <v>519433</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="24">
+        <v>44251374</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>9</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A26:G26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF477ADD-6D60-4A52-A419-6123334FD593}">
-  <dimension ref="D2:Y84"/>
+  <dimension ref="D2:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5972,87 +8076,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="4:25" x14ac:dyDescent="0.25">
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D8" s="5"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="L10" s="10" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="L10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="V10" s="10" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="V10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="12"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="22"/>
     </row>
     <row r="11" spans="4:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -6064,7 +8168,7 @@
       <c r="N11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -6155,7 +8259,7 @@
       <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="6"/>
       <c r="L14" s="4">
         <v>3</v>
@@ -6163,7 +8267,7 @@
       <c r="M14" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O14" s="6"/>
@@ -6173,7 +8277,7 @@
       <c r="W14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="X14" s="14" t="s">
+      <c r="X14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y14" s="6"/>
@@ -6215,7 +8319,7 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="6"/>
       <c r="L16" s="4">
         <v>5</v>
@@ -6223,7 +8327,7 @@
       <c r="M16" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="N16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="O16" s="6"/>
@@ -6233,7 +8337,7 @@
       <c r="W16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X16" s="14" t="s">
+      <c r="X16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y16" s="6"/>
@@ -6245,7 +8349,7 @@
       <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="6"/>
       <c r="L17" s="4">
         <v>6</v>
@@ -6253,7 +8357,7 @@
       <c r="M17">
         <v>4046</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="6"/>
@@ -6263,7 +8367,7 @@
       <c r="W17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="X17" s="14" t="s">
+      <c r="X17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y17" s="6"/>
@@ -6275,7 +8379,7 @@
       <c r="F18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="6"/>
       <c r="L18" s="4">
         <v>7</v>
@@ -6283,7 +8387,7 @@
       <c r="M18">
         <v>4225</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="N18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="6"/>
@@ -6293,7 +8397,7 @@
       <c r="W18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="14" t="s">
+      <c r="X18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y18" s="6"/>
@@ -6305,7 +8409,7 @@
       <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="6"/>
       <c r="L19" s="4">
         <v>8</v>
@@ -6313,7 +8417,7 @@
       <c r="M19">
         <v>4770</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="6"/>
@@ -6323,7 +8427,7 @@
       <c r="W19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X19" s="14" t="s">
+      <c r="X19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y19" s="6"/>
@@ -6335,7 +8439,7 @@
       <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="6"/>
       <c r="L20" s="4">
         <v>9</v>
@@ -6343,7 +8447,7 @@
       <c r="M20" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="6"/>
@@ -6353,7 +8457,7 @@
       <c r="W20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X20" s="14" t="s">
+      <c r="X20" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y20" s="6"/>
@@ -6365,7 +8469,7 @@
       <c r="F21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="6"/>
       <c r="L21" s="4">
         <v>10</v>
@@ -6373,7 +8477,7 @@
       <c r="M21" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="6"/>
@@ -6383,7 +8487,7 @@
       <c r="W21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X21" s="14" t="s">
+      <c r="X21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y21" s="6"/>
@@ -6395,7 +8499,7 @@
       <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="6"/>
       <c r="L22" s="4">
         <v>11</v>
@@ -6403,7 +8507,7 @@
       <c r="M22" t="s">
         <v>90</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="6"/>
@@ -6413,7 +8517,7 @@
       <c r="W22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X22" s="14" t="s">
+      <c r="X22" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y22" s="6"/>
@@ -6425,7 +8529,7 @@
       <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="6"/>
       <c r="L23" s="4">
         <v>12</v>
@@ -6433,7 +8537,7 @@
       <c r="M23" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="6"/>
@@ -6443,7 +8547,7 @@
       <c r="W23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X23" s="14" t="s">
+      <c r="X23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y23" s="6"/>
@@ -6455,7 +8559,7 @@
       <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="6"/>
       <c r="L24" s="4">
         <v>13</v>
@@ -6463,7 +8567,7 @@
       <c r="M24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="6"/>
@@ -6473,7 +8577,7 @@
       <c r="W24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X24" s="14" t="s">
+      <c r="X24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y24" s="6"/>
@@ -6485,7 +8589,7 @@
       <c r="F25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="9"/>
       <c r="L25" s="7">
         <v>14</v>
@@ -6493,7 +8597,7 @@
       <c r="M25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="9"/>
@@ -6503,7 +8607,7 @@
       <c r="W25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X25" s="14" t="s">
+      <c r="X25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y25" s="6"/>
@@ -6515,23 +8619,23 @@
       <c r="W26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X26" s="14"/>
+      <c r="X26" s="10"/>
       <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="22"/>
       <c r="V27" s="7">
         <v>16</v>
       </c>
       <c r="W27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="X27" s="16"/>
+      <c r="X27" s="12"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6561,12 +8665,12 @@
       <c r="H29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="12"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="22"/>
     </row>
     <row r="30" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E30" s="4">
@@ -6597,7 +8701,7 @@
       <c r="F31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="6"/>
       <c r="V31" s="4">
         <v>1</v>
@@ -6639,7 +8743,7 @@
       <c r="F33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="6"/>
       <c r="V33" s="4">
         <v>3</v>
@@ -6647,7 +8751,7 @@
       <c r="W33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="X33" s="14" t="s">
+      <c r="X33" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y33" s="6"/>
@@ -6659,7 +8763,7 @@
       <c r="F34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="6"/>
       <c r="V34" s="4">
         <v>4</v>
@@ -6679,7 +8783,7 @@
       <c r="F35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="6"/>
       <c r="V35" s="4">
         <v>5</v>
@@ -6687,7 +8791,7 @@
       <c r="W35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X35" s="14" t="s">
+      <c r="X35" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y35" s="6"/>
@@ -6699,7 +8803,7 @@
       <c r="F36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="6"/>
       <c r="V36" s="4">
         <v>6</v>
@@ -6707,7 +8811,7 @@
       <c r="W36" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="X36" s="14" t="s">
+      <c r="X36" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y36" s="6"/>
@@ -6719,7 +8823,7 @@
       <c r="F37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="6"/>
       <c r="V37" s="4">
         <v>7</v>
@@ -6727,7 +8831,7 @@
       <c r="W37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X37" s="14" t="s">
+      <c r="X37" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y37" s="6"/>
@@ -6739,7 +8843,7 @@
       <c r="F38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="6"/>
       <c r="V38" s="4">
         <v>8</v>
@@ -6747,7 +8851,7 @@
       <c r="W38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X38" s="14" t="s">
+      <c r="X38" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y38" s="6"/>
@@ -6759,7 +8863,7 @@
       <c r="F39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="6"/>
       <c r="V39" s="4">
         <v>9</v>
@@ -6767,7 +8871,7 @@
       <c r="W39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X39" s="14" t="s">
+      <c r="X39" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y39" s="6"/>
@@ -6779,7 +8883,7 @@
       <c r="F40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="14"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="6"/>
       <c r="V40" s="4">
         <v>10</v>
@@ -6787,7 +8891,7 @@
       <c r="W40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X40" s="14" t="s">
+      <c r="X40" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y40" s="6"/>
@@ -6799,7 +8903,7 @@
       <c r="F41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="14"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="6"/>
       <c r="V41" s="4">
         <v>11</v>
@@ -6807,7 +8911,7 @@
       <c r="W41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X41" s="14" t="s">
+      <c r="X41" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y41" s="6"/>
@@ -6819,7 +8923,7 @@
       <c r="F42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="9"/>
       <c r="V42" s="4">
         <v>12</v>
@@ -6827,7 +8931,7 @@
       <c r="W42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X42" s="14" t="s">
+      <c r="X42" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y42" s="6"/>
@@ -6839,25 +8943,25 @@
       <c r="W43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X43" s="14" t="s">
+      <c r="X43" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y43" s="6"/>
     </row>
     <row r="44" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="22"/>
       <c r="V44" s="4">
         <v>14</v>
       </c>
       <c r="W44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X44" s="14" t="s">
+      <c r="X44" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y44" s="6"/>
@@ -6881,7 +8985,7 @@
       <c r="W45" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X45" s="14"/>
+      <c r="X45" s="10"/>
       <c r="Y45" s="6"/>
     </row>
     <row r="46" spans="5:25" x14ac:dyDescent="0.25">
@@ -6903,7 +9007,7 @@
       <c r="W46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="X46" s="16"/>
+      <c r="X46" s="12"/>
       <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="5:25" x14ac:dyDescent="0.25">
@@ -6925,16 +9029,16 @@
       <c r="F48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="V48" s="10" t="s">
+      <c r="V48" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="12"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="22"/>
     </row>
     <row r="49" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E49" s="4">
@@ -6967,7 +9071,7 @@
       <c r="F50" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H50" s="6"/>
@@ -6991,7 +9095,7 @@
       <c r="F51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H51" s="6"/>
@@ -7013,7 +9117,7 @@
       <c r="F52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H52" s="6"/>
@@ -7023,7 +9127,7 @@
       <c r="W52" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="X52" s="14" t="s">
+      <c r="X52" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y52" s="6"/>
@@ -7035,7 +9139,7 @@
       <c r="F53" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="6"/>
@@ -7057,7 +9161,7 @@
       <c r="F54" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H54" s="6"/>
@@ -7067,7 +9171,7 @@
       <c r="W54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X54" s="14" t="s">
+      <c r="X54" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y54" s="6"/>
@@ -7079,7 +9183,7 @@
       <c r="F55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H55" s="6"/>
@@ -7089,7 +9193,7 @@
       <c r="W55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="X55" s="14" t="s">
+      <c r="X55" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y55" s="6"/>
@@ -7101,7 +9205,7 @@
       <c r="F56" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H56" s="6"/>
@@ -7111,7 +9215,7 @@
       <c r="W56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X56" s="14" t="s">
+      <c r="X56" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y56" s="6"/>
@@ -7123,7 +9227,7 @@
       <c r="F57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H57" s="6"/>
@@ -7133,7 +9237,7 @@
       <c r="W57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X57" s="14" t="s">
+      <c r="X57" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y57" s="6"/>
@@ -7145,7 +9249,7 @@
       <c r="F58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H58" s="6"/>
@@ -7155,7 +9259,7 @@
       <c r="W58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X58" s="14" t="s">
+      <c r="X58" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y58" s="6"/>
@@ -7167,7 +9271,7 @@
       <c r="F59" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H59" s="9"/>
@@ -7177,7 +9281,7 @@
       <c r="W59" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X59" s="14" t="s">
+      <c r="X59" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y59" s="6"/>
@@ -7189,7 +9293,7 @@
       <c r="W60" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X60" s="14" t="s">
+      <c r="X60" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y60" s="6"/>
@@ -7201,7 +9305,7 @@
       <c r="W61" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X61" s="14" t="s">
+      <c r="X61" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y61" s="6"/>
@@ -7213,52 +9317,114 @@
       <c r="W62" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X62" s="14" t="s">
+      <c r="X62" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y62" s="6"/>
     </row>
-    <row r="63" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="22"/>
       <c r="V63" s="4">
         <v>14</v>
       </c>
       <c r="W63" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X63" s="14" t="s">
+      <c r="X63" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y63" s="6"/>
     </row>
-    <row r="64" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="V64" s="4">
         <v>15</v>
       </c>
       <c r="W64" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X64" s="14"/>
+      <c r="X64" s="10"/>
       <c r="Y64" s="6"/>
     </row>
-    <row r="65" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="V65" s="7">
         <v>16</v>
       </c>
       <c r="W65" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="X65" s="16"/>
+      <c r="X65" s="12"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="67" spans="22:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V67" s="10" t="s">
+    <row r="66" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L66" s="4">
+        <v>2</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="12:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="4">
+        <v>3</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="V67" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="W67" s="11"/>
-      <c r="X67" s="11"/>
-      <c r="Y67" s="12"/>
-    </row>
-    <row r="68" spans="22:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="22"/>
+    </row>
+    <row r="68" spans="12:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="4">
+        <v>4</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="6"/>
       <c r="V68" s="1" t="s">
         <v>0</v>
       </c>
@@ -7272,7 +9438,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L69" s="4">
+        <v>5</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="6"/>
       <c r="V69" s="4">
         <v>1</v>
       </c>
@@ -7286,7 +9462,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L70" s="4">
+        <v>6</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="6"/>
       <c r="V70" s="4">
         <v>2</v>
       </c>
@@ -7298,19 +9484,39 @@
       </c>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L71" s="4">
+        <v>7</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O71" s="6"/>
       <c r="V71" s="4">
         <v>3</v>
       </c>
       <c r="W71" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="X71" s="14" t="s">
+      <c r="X71" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y71" s="6"/>
     </row>
-    <row r="72" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L72" s="4">
+        <v>8</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="6"/>
       <c r="V72" s="4">
         <v>4</v>
       </c>
@@ -7322,148 +9528,405 @@
       </c>
       <c r="Y72" s="6"/>
     </row>
-    <row r="73" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L73" s="7">
+        <v>9</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" s="9"/>
       <c r="V73" s="4">
         <v>5</v>
       </c>
       <c r="W73" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X73" s="14" t="s">
+      <c r="X73" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="12:25" x14ac:dyDescent="0.25">
       <c r="V74" s="4">
         <v>6</v>
       </c>
       <c r="W74" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="X74" s="14" t="s">
+      <c r="X74" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y74" s="6"/>
     </row>
-    <row r="75" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="12:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="22"/>
       <c r="V75" s="4">
         <v>7</v>
       </c>
       <c r="W75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X75" s="14" t="s">
+      <c r="X75" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="12:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="V76" s="4">
         <v>8</v>
       </c>
       <c r="W76" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X76" s="14" t="s">
+      <c r="X76" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y76" s="6"/>
     </row>
-    <row r="77" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="V77" s="4">
         <v>9</v>
       </c>
       <c r="W77" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X77" s="14" t="s">
+      <c r="X77" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y77" s="6"/>
     </row>
-    <row r="78" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L78" s="4">
+        <v>2</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O78" s="6"/>
       <c r="V78" s="4">
         <v>10</v>
       </c>
       <c r="W78" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X78" s="14" t="s">
+      <c r="X78" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y78" s="6"/>
     </row>
-    <row r="79" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L79" s="4">
+        <v>3</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="6"/>
       <c r="V79" s="4">
         <v>11</v>
       </c>
       <c r="W79" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X79" s="14" t="s">
+      <c r="X79" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L80" s="4">
+        <v>4</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="6"/>
       <c r="V80" s="4">
         <v>12</v>
       </c>
       <c r="W80" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X80" s="14" t="s">
+      <c r="X80" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y80" s="6"/>
     </row>
-    <row r="81" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L81" s="4">
+        <v>5</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="6"/>
       <c r="V81" s="4">
         <v>13</v>
       </c>
       <c r="W81" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X81" s="14" t="s">
+      <c r="X81" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y81" s="6"/>
     </row>
-    <row r="82" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L82" s="4">
+        <v>6</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N82" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="6"/>
       <c r="V82" s="4">
         <v>14</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X82" s="14" t="s">
+      <c r="X82" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Y82" s="6"/>
     </row>
-    <row r="83" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L83" s="4">
+        <v>7</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="6"/>
       <c r="V83" s="4">
         <v>15</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X83" s="14"/>
+      <c r="X83" s="10"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84" spans="22:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L84" s="4">
+        <v>8</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="6"/>
       <c r="V84" s="7">
         <v>16</v>
       </c>
       <c r="W84" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="X84" s="16"/>
+      <c r="X84" s="12"/>
       <c r="Y84" s="9"/>
     </row>
+    <row r="85" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L85" s="7">
+        <v>9</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O85" s="9"/>
+    </row>
+    <row r="87" spans="12:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="22"/>
+    </row>
+    <row r="88" spans="12:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L89" s="4">
+        <v>1</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L90" s="4">
+        <v>2</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L91" s="4">
+        <v>3</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N91" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L92" s="4">
+        <v>4</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N92" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L93" s="4">
+        <v>5</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L94" s="4">
+        <v>6</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N94" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L95" s="4">
+        <v>7</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L96" s="4">
+        <v>8</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N96" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L97" s="7">
+        <v>9</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L87:O87"/>
     <mergeCell ref="V48:Y48"/>
     <mergeCell ref="V67:Y67"/>
     <mergeCell ref="L10:O10"/>

--- a/ERD/h_a_ERD.xlsx
+++ b/ERD/h_a_ERD.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents1\GitHub\Health_and_Avocados\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC152E-A835-46FB-876F-ECCF71E4A0BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3521D3-8620-4719-9612-17B41EBFE68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
+    <workbookView xWindow="5880" yWindow="3015" windowWidth="20070" windowHeight="16125" firstSheet="1" activeTab="5" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Prices" sheetId="3" r:id="rId2"/>
     <sheet name="Production" sheetId="5" r:id="rId3"/>
-    <sheet name="ERD Diagram" sheetId="4" r:id="rId4"/>
+    <sheet name="Climate" sheetId="6" r:id="rId4"/>
+    <sheet name="ERD Diagram-Source Data" sheetId="4" r:id="rId5"/>
+    <sheet name="ERD Diagram-Consolidation" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -391,6 +393,126 @@
   </si>
   <si>
     <t>AB_2020_AvoProducitonPerWeek</t>
+  </si>
+  <si>
+    <t>ca_climate</t>
+  </si>
+  <si>
+    <t>StateCode</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>YearMonth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TAVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PDSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PHDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ZNDX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PMDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    HDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SP24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   TMAX</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>date time</t>
+  </si>
+  <si>
+    <t>CA_State_Climate</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Area within the state - this file is state wide so all 0's</t>
+  </si>
+  <si>
+    <t>year and month</t>
+  </si>
+  <si>
+    <t>percipitation index</t>
+  </si>
+  <si>
+    <t>Temperature index</t>
+  </si>
+  <si>
+    <t>Palmer Drought severity index</t>
+  </si>
+  <si>
+    <t>Palmer Hydrological Drought index</t>
+  </si>
+  <si>
+    <t>Palmer Z-index</t>
+  </si>
+  <si>
+    <t>Modified Palmer Drought Severity index</t>
+  </si>
+  <si>
+    <t>Cooling degree days</t>
+  </si>
+  <si>
+    <t>Heating degree days</t>
+  </si>
+  <si>
+    <t>Standard percipitation index for xx months</t>
+  </si>
+  <si>
+    <t>Temperature max</t>
+  </si>
+  <si>
+    <t>Temperature min</t>
+  </si>
+  <si>
+    <t>2018_2020_Avo_Kaggle_Market_Prices</t>
+  </si>
+  <si>
+    <t>2018_2020_Production</t>
   </si>
 </sst>
 </file>
@@ -551,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -573,6 +695,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,8 +709,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4196,6 +4320,959 @@
         <a:xfrm>
           <a:off x="10591000" y="12465278"/>
           <a:ext cx="760346" cy="785647"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>126352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>337847</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>116438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Flowchart: Decision 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1383F337-25E8-4B01-9535-4487BD037D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="835867" y="12683801"/>
+          <a:ext cx="726623" cy="787076"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>337847</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>131115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>592883</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>145791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC3F413-2120-4E6E-9194-A8FCA3AB46F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562490" y="13077339"/>
+          <a:ext cx="867357" cy="14676"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9487B07-0D0A-4B5A-832B-D931D9A13AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2177143" y="12955944"/>
+          <a:ext cx="0" cy="341345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586858</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19440</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>126352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCAF639B-17BC-4540-A881-F62FD18BCDA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1199179" y="8961276"/>
+          <a:ext cx="44904" cy="3722525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>262424</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>117568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529662</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>106720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54AD410-1E25-48FF-886B-94601804F2B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5355383" y="12675017"/>
+          <a:ext cx="549100" cy="377927"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>87475</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>97194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223546</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>97194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5B589C-3257-4AD7-B39A-CBD29C08C8BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5462296" y="12849031"/>
+          <a:ext cx="136071" cy="194387"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>262424</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>529662</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CBB412-447F-4E5F-B5E2-0CE42C761D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5339249" y="12423868"/>
+          <a:ext cx="552988" cy="370152"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380749</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Decision 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0415B235-C488-45F3-97B0-D7BDB06C744D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="295275"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B27AE9-7AFC-4085-B945-2258A133C752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="685800"/>
+          <a:ext cx="257175" cy="1796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106571</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2184CCB4-B807-41C2-95F8-0DD9517286C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="695325"/>
+          <a:ext cx="257175" cy="1796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390274</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117892</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Decision 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3245B11-2591-4F92-B465-88567E83D58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="304800"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648A684B-FEE6-4EB5-9E56-68BC03555C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="685800"/>
+          <a:ext cx="257175" cy="1796"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5558B7-7738-47D4-99A6-ABA9CD514D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353550" y="704850"/>
+          <a:ext cx="171450" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2696785-168A-4DC0-8EC7-A0DAEB32FB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="504825"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B3CEE6-E7D2-4608-84FB-FB26865F8890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="504825"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABF2BCC-99EF-4C25-AB75-B4CD5626C7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8467725" y="523875"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A85CA89-58A4-4C8A-ACFD-171134B5FADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="904875"/>
+          <a:ext cx="104775" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B357FA-4614-4E64-9C6C-56BE1C59FB2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439275" y="895350"/>
+          <a:ext cx="19050" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4536,15 +5613,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4615,8 +5692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5A6CCC-1CD5-40DC-89A7-7AF9B2A6CDD2}">
   <dimension ref="A2:Y76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,33 +5722,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-      <c r="Q2" s="19" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="Q2" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4967,7 +6044,7 @@
         <v>86</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7">
@@ -5599,15 +6676,15 @@
       <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
       <c r="I19" s="7">
         <v>16</v>
       </c>
@@ -5680,15 +6757,15 @@
       <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -6236,15 +7313,15 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
       <c r="I36" s="4">
         <v>14</v>
       </c>
@@ -6386,15 +7463,15 @@
       <c r="G40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="23"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -6963,15 +8040,15 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I59" s="19" t="s">
+      <c r="I59" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="21"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="23"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I60" s="1" t="s">
@@ -7365,15 +8442,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7432,7 +8509,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>43107</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -7474,7 +8551,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>45670156</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -7495,7 +8572,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>899349</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -7516,7 +8593,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>519433</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -7537,7 +8614,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>44251374</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -7590,15 +8667,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -7657,7 +8734,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <v>43107</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -7699,7 +8776,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="24">
+      <c r="E19" s="20">
         <v>45670156</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -7720,7 +8797,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="24">
+      <c r="E20" s="20">
         <v>899349</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -7741,7 +8818,7 @@
         <v>32</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="24">
+      <c r="E21" s="20">
         <v>519433</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -7762,7 +8839,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="24">
+      <c r="E22" s="20">
         <v>44251374</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -7815,15 +8892,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -7882,7 +8959,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>43107</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -7924,7 +9001,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="24">
+      <c r="E31" s="20">
         <v>45670156</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -7945,7 +9022,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="24">
+      <c r="E32" s="20">
         <v>899349</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -7966,7 +9043,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>519433</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -7987,7 +9064,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="24">
+      <c r="E34" s="20">
         <v>44251374</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -8051,11 +9128,495 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76509C0A-71D0-45F7-A862-A6FCFCF84B66}">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>201001</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10">
+        <v>6.48</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10">
+        <v>45.2</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="10">
+        <v>-2.02</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="10">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="10">
+        <v>491</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10">
+        <v>-1.22</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="10">
+        <v>36.6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="12">
+        <v>53.7</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF477ADD-6D60-4A52-A419-6123334FD593}">
   <dimension ref="D2:Y97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView topLeftCell="A52" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8127,24 +9688,24 @@
     </row>
     <row r="10" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="L10" s="19" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="L10" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="22"/>
-      <c r="V10" s="19" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="24"/>
+      <c r="V10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="24"/>
     </row>
     <row r="11" spans="4:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E11" s="16" t="s">
@@ -8298,7 +9859,7 @@
         <v>86</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="O15" s="6"/>
       <c r="V15" s="4">
@@ -8623,12 +10184,12 @@
       <c r="Y26" s="6"/>
     </row>
     <row r="27" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="24"/>
       <c r="V27" s="7">
         <v>16</v>
       </c>
@@ -8665,12 +10226,12 @@
       <c r="H29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="19" t="s">
+      <c r="V29" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="24"/>
     </row>
     <row r="30" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E30" s="4">
@@ -8949,12 +10510,12 @@
       <c r="Y43" s="6"/>
     </row>
     <row r="44" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="24"/>
       <c r="V44" s="4">
         <v>14</v>
       </c>
@@ -9033,12 +10594,12 @@
         <v>31</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="V48" s="19" t="s">
+      <c r="V48" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="24"/>
     </row>
     <row r="49" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E49" s="4">
@@ -9323,12 +10884,18 @@
       <c r="Y62" s="6"/>
     </row>
     <row r="63" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L63" s="19" t="s">
+      <c r="E63" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="24"/>
+      <c r="L63" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="24"/>
       <c r="V63" s="4">
         <v>14</v>
       </c>
@@ -9341,6 +10908,18 @@
       <c r="Y63" s="6"/>
     </row>
     <row r="64" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="L64" s="1" t="s">
         <v>0</v>
       </c>
@@ -9362,7 +10941,17 @@
       <c r="X64" s="10"/>
       <c r="Y64" s="6"/>
     </row>
-    <row r="65" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="6"/>
       <c r="L65" s="4">
         <v>1</v>
       </c>
@@ -9384,7 +10973,17 @@
       <c r="X65" s="12"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" s="6"/>
       <c r="L66" s="4">
         <v>2</v>
       </c>
@@ -9396,7 +10995,19 @@
       </c>
       <c r="O66" s="6"/>
     </row>
-    <row r="67" spans="12:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="4">
+        <v>3</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="L67" s="4">
         <v>3</v>
       </c>
@@ -9407,14 +11018,24 @@
         <v>31</v>
       </c>
       <c r="O67" s="6"/>
-      <c r="V67" s="19" t="s">
+      <c r="V67" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="W67" s="20"/>
-      <c r="X67" s="20"/>
-      <c r="Y67" s="22"/>
-    </row>
-    <row r="68" spans="12:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="24"/>
+    </row>
+    <row r="68" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="6"/>
       <c r="L68" s="4">
         <v>4</v>
       </c>
@@ -9438,7 +11059,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E69" s="4">
+        <v>5</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="6"/>
       <c r="L69" s="4">
         <v>5</v>
       </c>
@@ -9462,7 +11093,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E70" s="4">
+        <v>6</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70" s="6"/>
       <c r="L70" s="4">
         <v>6</v>
       </c>
@@ -9484,7 +11125,17 @@
       </c>
       <c r="Y70" s="6"/>
     </row>
-    <row r="71" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E71" s="4">
+        <v>7</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="6"/>
       <c r="L71" s="4">
         <v>7</v>
       </c>
@@ -9506,7 +11157,17 @@
       </c>
       <c r="Y71" s="6"/>
     </row>
-    <row r="72" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E72" s="4">
+        <v>8</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" s="6"/>
       <c r="L72" s="4">
         <v>8</v>
       </c>
@@ -9528,7 +11189,17 @@
       </c>
       <c r="Y72" s="6"/>
     </row>
-    <row r="73" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E73" s="4">
+        <v>9</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H73" s="6"/>
       <c r="L73" s="7">
         <v>9</v>
       </c>
@@ -9550,7 +11221,17 @@
       </c>
       <c r="Y73" s="6"/>
     </row>
-    <row r="74" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E74" s="4">
+        <v>10</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H74" s="6"/>
       <c r="V74" s="4">
         <v>6</v>
       </c>
@@ -9562,13 +11243,23 @@
       </c>
       <c r="Y74" s="6"/>
     </row>
-    <row r="75" spans="12:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L75" s="19" t="s">
+    <row r="75" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="4">
+        <v>11</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="L75" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="24"/>
       <c r="V75" s="4">
         <v>7</v>
       </c>
@@ -9580,7 +11271,17 @@
       </c>
       <c r="Y75" s="6"/>
     </row>
-    <row r="76" spans="12:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="4">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="6"/>
       <c r="L76" s="1" t="s">
         <v>0</v>
       </c>
@@ -9604,7 +11305,17 @@
       </c>
       <c r="Y76" s="6"/>
     </row>
-    <row r="77" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E77" s="4">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="6"/>
       <c r="L77" s="4">
         <v>1</v>
       </c>
@@ -9628,7 +11339,17 @@
       </c>
       <c r="Y77" s="6"/>
     </row>
-    <row r="78" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E78" s="4">
+        <v>14</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="6"/>
       <c r="L78" s="4">
         <v>2</v>
       </c>
@@ -9650,7 +11371,17 @@
       </c>
       <c r="Y78" s="6"/>
     </row>
-    <row r="79" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E79" s="4">
+        <v>15</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" s="6"/>
       <c r="L79" s="4">
         <v>3</v>
       </c>
@@ -9672,7 +11403,17 @@
       </c>
       <c r="Y79" s="6"/>
     </row>
-    <row r="80" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E80" s="4">
+        <v>16</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="6"/>
       <c r="L80" s="4">
         <v>4</v>
       </c>
@@ -9694,7 +11435,17 @@
       </c>
       <c r="Y80" s="6"/>
     </row>
-    <row r="81" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E81" s="4">
+        <v>17</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="6"/>
       <c r="L81" s="4">
         <v>5</v>
       </c>
@@ -9716,7 +11467,17 @@
       </c>
       <c r="Y81" s="6"/>
     </row>
-    <row r="82" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E82" s="4">
+        <v>18</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="6"/>
       <c r="L82" s="4">
         <v>6</v>
       </c>
@@ -9738,7 +11499,17 @@
       </c>
       <c r="Y82" s="6"/>
     </row>
-    <row r="83" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E83" s="4">
+        <v>19</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="6"/>
       <c r="L83" s="4">
         <v>7</v>
       </c>
@@ -9758,7 +11529,17 @@
       <c r="X83" s="10"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E84" s="7">
+        <v>20</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="9"/>
       <c r="L84" s="4">
         <v>8</v>
       </c>
@@ -9778,7 +11559,7 @@
       <c r="X84" s="12"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L85" s="7">
         <v>9</v>
       </c>
@@ -9790,15 +11571,15 @@
       </c>
       <c r="O85" s="9"/>
     </row>
-    <row r="87" spans="12:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L87" s="19" t="s">
+    <row r="87" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L87" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="22"/>
-    </row>
-    <row r="88" spans="12:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="24"/>
+    </row>
+    <row r="88" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="L88" s="1" t="s">
         <v>0</v>
       </c>
@@ -9812,7 +11593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L89" s="4">
         <v>1</v>
       </c>
@@ -9826,7 +11607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L90" s="4">
         <v>2</v>
       </c>
@@ -9838,7 +11619,7 @@
       </c>
       <c r="O90" s="6"/>
     </row>
-    <row r="91" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L91" s="4">
         <v>3</v>
       </c>
@@ -9850,7 +11631,7 @@
       </c>
       <c r="O91" s="6"/>
     </row>
-    <row r="92" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L92" s="4">
         <v>4</v>
       </c>
@@ -9862,7 +11643,7 @@
       </c>
       <c r="O92" s="6"/>
     </row>
-    <row r="93" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L93" s="4">
         <v>5</v>
       </c>
@@ -9874,7 +11655,7 @@
       </c>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L94" s="4">
         <v>6</v>
       </c>
@@ -9886,7 +11667,7 @@
       </c>
       <c r="O94" s="6"/>
     </row>
-    <row r="95" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L95" s="4">
         <v>7</v>
       </c>
@@ -9898,7 +11679,7 @@
       </c>
       <c r="O95" s="6"/>
     </row>
-    <row r="96" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:25" x14ac:dyDescent="0.25">
       <c r="L96" s="4">
         <v>8</v>
       </c>
@@ -9923,18 +11704,704 @@
       <c r="O97" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L87:O87"/>
-    <mergeCell ref="V48:Y48"/>
-    <mergeCell ref="V67:Y67"/>
+  <mergeCells count="12">
+    <mergeCell ref="E63:H63"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="E44:H44"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="V10:Y10"/>
     <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L87:O87"/>
+    <mergeCell ref="V48:Y48"/>
+    <mergeCell ref="V67:Y67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BB7B71-192D-492B-8FA2-70340F269536}">
+  <dimension ref="C2:R31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="I2" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="O2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="3:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="O8" s="4">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="O9" s="4">
+        <v>6</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="I10" s="4">
+        <v>7</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="O10" s="4">
+        <v>7</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6"/>
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="O11" s="4">
+        <v>8</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="I12" s="7">
+        <v>9</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="O12" s="4">
+        <v>9</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+      <c r="O13" s="4">
+        <v>10</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
+      <c r="O14" s="4">
+        <v>11</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="O15" s="4">
+        <v>12</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
+      <c r="O16" s="4">
+        <v>13</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>14</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="6"/>
+      <c r="O17" s="4">
+        <v>14</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="25">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="O18" s="4">
+        <v>15</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="25">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="O19" s="4">
+        <v>16</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="25">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="O20" s="4">
+        <v>17</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="25">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="O21" s="4">
+        <v>18</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="25">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="O22" s="4">
+        <v>19</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="25">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="O23" s="7">
+        <v>20</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="25">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C25" s="25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="25">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C27" s="25">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C28" s="25">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C29" s="25">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C30" s="25">
+        <v>27</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="26">
+        <v>28</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ERD/h_a_ERD.xlsx
+++ b/ERD/h_a_ERD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents1\GitHub\Health_and_Avocados\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A67E1-BEAC-4C9B-A74A-6E728A475FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9FDCA9-B9C4-474B-8D2C-3FEB2233CF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="1" activeTab="4" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
+    <workbookView xWindow="750" yWindow="1350" windowWidth="33285" windowHeight="19335" firstSheet="3" activeTab="6" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Climate" sheetId="6" r:id="rId4"/>
     <sheet name="ERD Diagram-Source Data" sheetId="4" r:id="rId5"/>
     <sheet name="ERD Diagram-Consolidation" sheetId="7" r:id="rId6"/>
+    <sheet name="seg2_update_joins" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -507,13 +508,265 @@
   </si>
   <si>
     <t>period</t>
+  </si>
+  <si>
+    <t>prices_prod</t>
+  </si>
+  <si>
+    <t>year_month,</t>
+  </si>
+  <si>
+    <t>geography,</t>
+  </si>
+  <si>
+    <t>date,</t>
+  </si>
+  <si>
+    <t>avg_price_prior_year,</t>
+  </si>
+  <si>
+    <t>avg_price_current_year,</t>
+  </si>
+  <si>
+    <t>avg_price_variance,</t>
+  </si>
+  <si>
+    <t>columbia</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>four_zero_four_six_unit</t>
+  </si>
+  <si>
+    <t>four_two_two_five_units</t>
+  </si>
+  <si>
+    <t>four_seven_seven_zero_units</t>
+  </si>
+  <si>
+    <t>double_precision</t>
+  </si>
+  <si>
+    <t>prod_total_volume</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>all_prices</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>market_prod</t>
+  </si>
+  <si>
+    <t>prices_clim</t>
+  </si>
+  <si>
+    <t>price_total_volume</t>
+  </si>
+  <si>
+    <t>tavg,</t>
+  </si>
+  <si>
+    <t>pdsi,</t>
+  </si>
+  <si>
+    <t>phdi,</t>
+  </si>
+  <si>
+    <t>zndx,</t>
+  </si>
+  <si>
+    <t>pmdi,</t>
+  </si>
+  <si>
+    <t>cdd,</t>
+  </si>
+  <si>
+    <t>sp01,</t>
+  </si>
+  <si>
+    <t>sp02,</t>
+  </si>
+  <si>
+    <t>sp03,</t>
+  </si>
+  <si>
+    <t>sp06,</t>
+  </si>
+  <si>
+    <t>sp09,</t>
+  </si>
+  <si>
+    <t>sp12,</t>
+  </si>
+  <si>
+    <t>sp24,</t>
+  </si>
+  <si>
+    <t>tmin,</t>
+  </si>
+  <si>
+    <t>tmax</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>units_prior_year</t>
+  </si>
+  <si>
+    <t>units_current_year</t>
+  </si>
+  <si>
+    <t>unit_variance</t>
+  </si>
+  <si>
+    <t>dollars_prior_year</t>
+  </si>
+  <si>
+    <t>dollars_current_year</t>
+  </si>
+  <si>
+    <t>dollar_variance</t>
+  </si>
+  <si>
+    <t>avg_price_prior_year</t>
+  </si>
+  <si>
+    <t>avg_price_current_year</t>
+  </si>
+  <si>
+    <t>avg_price_variance</t>
+  </si>
+  <si>
+    <t>all_market</t>
+  </si>
+  <si>
+    <t>pcp,</t>
+  </si>
+  <si>
+    <t>market_clim</t>
+  </si>
+  <si>
+    <t>all prod</t>
+  </si>
+  <si>
+    <t>all_prod</t>
+  </si>
+  <si>
+    <t>prod_clim</t>
+  </si>
+  <si>
+    <t>price_prod table, Inner join on date</t>
+  </si>
+  <si>
+    <t>market_prod table, Inner join on date</t>
+  </si>
+  <si>
+    <t>segment</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>prodchile</t>
+  </si>
+  <si>
+    <t>units prior year</t>
+  </si>
+  <si>
+    <t>units current year</t>
+  </si>
+  <si>
+    <t>unit variance</t>
+  </si>
+  <si>
+    <t>dollars prior year</t>
+  </si>
+  <si>
+    <t>dollars current year</t>
+  </si>
+  <si>
+    <t>dollar variance</t>
+  </si>
+  <si>
+    <t>pri ces_clim table, Inner join on year_month</t>
+  </si>
+  <si>
+    <t>clim.pcp</t>
+  </si>
+  <si>
+    <t>tavg</t>
+  </si>
+  <si>
+    <t>pdsi</t>
+  </si>
+  <si>
+    <t>phdi</t>
+  </si>
+  <si>
+    <t>zndx</t>
+  </si>
+  <si>
+    <t>pmdi</t>
+  </si>
+  <si>
+    <t>cdd</t>
+  </si>
+  <si>
+    <t>sp01</t>
+  </si>
+  <si>
+    <t>sp02</t>
+  </si>
+  <si>
+    <t>sp03</t>
+  </si>
+  <si>
+    <t>sp06</t>
+  </si>
+  <si>
+    <t>sp09</t>
+  </si>
+  <si>
+    <t>sp12</t>
+  </si>
+  <si>
+    <t>sp24</t>
+  </si>
+  <si>
+    <t>tmin</t>
+  </si>
+  <si>
+    <t>market_clim table, inner join on year_month</t>
+  </si>
+  <si>
+    <t>prod_clim table, inner join on year_month</t>
+  </si>
+  <si>
+    <t>pcp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +782,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -538,7 +797,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -663,11 +922,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -699,6 +1078,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,11 +1111,571 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="45">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5048,6 +6005,2352 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>602673</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{741F440C-8B04-4A8E-A98D-68B03D01DA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5936673" y="1085850"/>
+          <a:ext cx="1826202" cy="196273"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331286CD-D98E-44B1-B44C-5AB1BB640FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="1104900"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCA9E8D-5FCD-4CF2-BCBC-6871A42DC0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="933450"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Decision 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A2508A-31F6-465E-B058-1BADA9457E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="800100"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596879E6-4EA2-41C3-94E9-DA722C6A080A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9124950" y="876300"/>
+          <a:ext cx="1771650" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133099</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Flowchart: Decision 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06416DA-D50C-4AA0-A48C-647D396D04B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="590550"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>46760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF513A5-C7D7-4BAE-9DA1-1AB33B2783BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="876300"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6BDDB5-80F0-4EE8-8498-8E40239D8EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="742950"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2296169A-758A-4517-A83F-7E9002195B63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5676900" y="7258050"/>
+          <a:ext cx="1866900" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBE4515-B8BB-4FE3-821B-C4A55051DE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5838825" y="7772400"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCD225E-3817-432B-BBE3-19A8D37ECC8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="7219950"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>70267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Decision 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B8196F-49C1-48A4-AF55-C959FCCCBDFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="7181850"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E693D4-F703-470A-BF21-0FB53560CFEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11306175" y="6848475"/>
+          <a:ext cx="1752600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Flowchart: Decision 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B2678D-8FBC-4CF6-BC85-ECC9B2762239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="1171575"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4219C80-FB31-4EA5-AF88-F6C01841359A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11468100" y="7067550"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA14FFFC-AF63-46FD-B0E3-CEEBAFF87DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11496675" y="1323975"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36EEC83-89C4-4978-B457-E3CD435B1B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5724527" y="12020550"/>
+          <a:ext cx="1790698" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BFE978-691C-4A42-8B00-5FBA688811E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="11849100"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C71106C-777D-4D33-A866-23C58D6B7D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="11830050"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>18799</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>127417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Flowchart: Decision 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CF0D06-C4BC-4BFD-84EA-88734B0991BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181725" y="11639550"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B0B481D-09F7-43C7-B52D-6C82960602AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11287125" y="12020550"/>
+          <a:ext cx="1790700" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153FE4D0-D187-4F3F-91C5-EE6186EA6C3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11458575" y="11849100"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>84860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF777A8B-D71E-478C-ACBC-B52F775D0DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="11858625"/>
+          <a:ext cx="0" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123574</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>108367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Flowchart: Decision 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2CDCAE-7E43-4BDC-8805-22C31920980D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868150" y="11620500"/>
+          <a:ext cx="742699" cy="784642"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43028B42-DEA0-4103-9954-4193DD937699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5705477" y="18697575"/>
+          <a:ext cx="1790698" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>122960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B19D87A-9E22-49BC-BDD5-B7675DE3FBF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="18583275"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11409AB-4C0A-4663-8806-8BA25EDA0498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="18535650"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66424</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>79792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Flowchart: Decision 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62430C44-1999-4430-BD93-BED246F01CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="18288000"/>
+          <a:ext cx="742699" cy="765592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EAB342-4B2D-4C12-9C51-5D218C4F66A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5705477" y="18697575"/>
+          <a:ext cx="1790698" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>122960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58689AA5-4E6F-4973-B3D5-9AB80239FBD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="18583275"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2E6F02-1109-4489-A910-BB706F49F673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="18535650"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66424</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>79792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Flowchart: Decision 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA64BB11-7FEB-4903-8BA9-B11E9A3F798B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="18288000"/>
+          <a:ext cx="742699" cy="765592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0198DF1-D2FE-414F-AA3E-BA9FA9304A3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5705477" y="18707100"/>
+          <a:ext cx="1790698" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>122960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C2DFE1-723B-4CE7-B75E-DE02D3E18249}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="18592800"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368F02E4-1523-417A-9960-7B5A54F61CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="18545175"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66424</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>79792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Flowchart: Decision 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F678586-C02D-4783-B237-8F5ECBA95976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="18297525"/>
+          <a:ext cx="742699" cy="765592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09627E1-6334-4CC7-9D5D-B924031054F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5705477" y="18707100"/>
+          <a:ext cx="1790698" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>122960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799194C9-4139-4A2F-96C5-D13FB2959A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="18592800"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>75335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B33CC6D-47F1-4488-9729-B567401078BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="18545175"/>
+          <a:ext cx="0" cy="322985"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66424</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>79792</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Flowchart: Decision 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B847DA-A15F-4FE5-8912-8142E07B6137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="18297525"/>
+          <a:ext cx="742699" cy="765592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1:1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CD391615-4F2D-4C75-B250-F0C329A1642C}" name="Table3" displayName="Table3" ref="K6:N27" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="K6:N27" xr:uid="{9975176B-D938-4670-A51F-3BF442CDAE57}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F7B08065-131A-460B-B991-17515AC4F295}" name="ID" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{7AF66822-63CA-44FC-B65C-8EDBDA036947}" name="name" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{D4A7E421-57AA-4029-AB20-659B9822D38F}" name="data_type"/>
+    <tableColumn id="4" xr3:uid="{8EE071D7-C232-4A14-BCE9-3A7DDB0042EA}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{33D376E1-9C7B-450F-AD57-5C8308023B12}" name="Table14" displayName="Table14" ref="D99:G112" totalsRowShown="0">
+  <autoFilter ref="D99:G112" xr:uid="{ADF9AB83-E05E-4664-985C-C0B0B141CE1A}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{25020B43-33C2-44C5-A073-7212ACA7C338}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{7DCA86F5-4DE5-46D6-9DA8-DD2A0A8C44BA}" name="name"/>
+    <tableColumn id="3" xr3:uid="{975BA697-6B50-4084-9F56-A49057DB6E48}" name="data_type"/>
+    <tableColumn id="4" xr3:uid="{11D0A615-B628-42B4-B43F-CCF672D89775}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{79FDB8DD-9495-4939-B798-E6F70FB370EC}" name="Table15" displayName="Table15" ref="K99:N128" totalsRowShown="0">
+  <autoFilter ref="K99:N128" xr:uid="{D3572DF5-C43D-45A8-84C9-BE60098BB594}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{92CADF86-846C-42BC-9F49-92292D8DE108}" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E4A995ED-0ED8-4D6E-BCF4-7844008D6654}" name="name"/>
+    <tableColumn id="3" xr3:uid="{497109B2-413D-4F10-82D5-19839BBE300C}" name="data_type"/>
+    <tableColumn id="4" xr3:uid="{912AFAA3-5EC4-48C7-B3F2-1074AEA03AB4}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{09C1DF6E-58AB-4F9C-91E2-BC0CCEBDF262}" name="Table1217" displayName="Table1217" ref="R99:U117" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="R99:U117" xr:uid="{AE6B41BA-A268-4EDF-95AE-990741D91B7F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6151B49A-61C4-4FC6-A4A2-EDADC21EDC83}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{F7B46A1A-51F8-4148-8442-8F9AF656B5AC}" name="name"/>
+    <tableColumn id="3" xr3:uid="{602AE5AC-98C5-4B08-B4C8-CEE5778BFFF0}" name="data_type" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{965072C7-3A4E-4406-89B7-C625778A0C3E}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{7E175B99-70C5-4911-8019-7CF85FE460FA}" name="Table5918" displayName="Table5918" ref="D136:G145" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="D136:G145" xr:uid="{F6AEA4A8-11B9-42DD-A366-8D4A1DA11A9F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8E4A3E80-7072-491A-A7E8-1ECBCB8A0A64}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{BE2CAC00-1C0E-4498-8396-D265CE1B42E9}" name="name"/>
+    <tableColumn id="3" xr3:uid="{56CF506B-E5BF-4B3D-A566-2038120A6E92}" name="data_type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F3601FEE-D3D3-49B4-B6E8-D8AA3F7A9D9D}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{DD82FE9D-E15C-4E67-8567-728EB0939529}" name="Table121719" displayName="Table121719" ref="R136:U154" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="R136:U154" xr:uid="{D81FCDE5-F4F5-45D1-B83D-4184DB884EAF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6DAA6421-7460-48EE-9FA2-DE03FBDD93F4}" name="ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4922B4CA-D39B-46FE-82FD-4C763659C533}" name="name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F53556CE-AE17-432D-AC14-AA1C4B564359}" name="data_type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{34F0E6BE-4D11-418C-9FC9-7817E330BCF5}" name="key" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F7DAA182-9B5E-4D9A-9513-BAEECB7EB30F}" name="Table19" displayName="Table19" ref="K136:N160" totalsRowShown="0">
+  <autoFilter ref="K136:N160" xr:uid="{B50DCCC6-1FA2-41FA-B73C-8733346973EF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D7E0A520-AC75-4B93-935D-D6D59859A62E}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{7C371495-3E44-4315-9570-FE7FFD41881F}" name="name"/>
+    <tableColumn id="3" xr3:uid="{99741DE5-20D0-4BC0-A726-71BA0D1DE4EB}" name="data_type"/>
+    <tableColumn id="4" xr3:uid="{64F258CB-9307-46C2-B947-3B7E4F159F54}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1EFABE88-9D5C-4111-83C9-D7AD30791F2F}" name="Table4" displayName="Table4" ref="D6:G20" totalsRowShown="0" headerRowDxfId="40" tableBorderDxfId="39">
+  <autoFilter ref="D6:G20" xr:uid="{F511E464-4BB4-4641-8182-69098495E5E6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F9B2F5C0-A037-4715-9387-F69B95ACFEED}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{8A149780-5505-4533-94C4-739BE8294068}" name="name"/>
+    <tableColumn id="3" xr3:uid="{56E80041-0B3F-4B19-91E1-3C7FDA848BF2}" name="data_type" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{3A951E61-0FB7-446E-915B-F45AEEC7F53E}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F55E9CE-3E47-41CF-86BC-E108F20DB1A6}" name="Table5" displayName="Table5" ref="R6:U15" totalsRowShown="0" headerRowDxfId="37" tableBorderDxfId="36">
+  <autoFilter ref="R6:U15" xr:uid="{F9A3DDC1-D834-4792-A761-1F5947F53DDE}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D1DC0939-6A0C-4D6E-9E65-273120494CDD}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{40C7FD95-CDAE-464D-AB0A-F787E62E66EA}" name="name"/>
+    <tableColumn id="3" xr3:uid="{706EE73E-B332-40A8-8F5B-F032BAD3AFD3}" name="data_type" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{F7D7DB3E-F173-4C9B-9951-2B671A9FE7D5}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2B8CD3B8-1BA1-4027-9763-D3A20DD91401}" name="Table37" displayName="Table37" ref="K34:N53" totalsRowShown="0" headerRowDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="K34:N53" xr:uid="{EE06B811-F278-45B9-AC5C-DE919D1228D5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B5507F24-A23B-464D-AADD-8A3CBB01F033}" name="ID" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A1EA127B-C9F2-445A-95FB-857711307ED5}" name="name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{A9B746B6-85F8-4522-ABCB-7F2C4FAC63F6}" name="data_type"/>
+    <tableColumn id="4" xr3:uid="{70E9AB5A-03A7-43C0-8D37-C001C0FA85CC}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{15D6465A-E7FD-424E-B1BE-54009ED37B53}" name="Table48" displayName="Table48" ref="D34:G51" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="D34:G51" xr:uid="{723292E7-C093-45A9-A562-D797A6E83655}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AFA27791-6C48-4E22-9775-974DD5AE6FBA}" name="2017_market_prices"/>
+    <tableColumn id="2" xr3:uid="{41C8F64A-A718-4FDB-842B-0186DCD90DE9}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{255C73D4-E4D4-4EBA-A5E2-36DA1B28B91C}" name="Column2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{6EBAD9D2-52E6-437E-8E42-E22429EEC424}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{234B7C89-5E7B-4041-85E4-87E0772BA2D5}" name="Table59" displayName="Table59" ref="R34:U43" totalsRowShown="0" headerRowDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="R34:U43" xr:uid="{BCFB62AF-FC6D-4894-9B24-A0D68E4FC385}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F5A61A6F-28F9-4899-B4F5-D27BE7075C77}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{14DDEB61-B7C3-4CCD-8D56-5F6BC5DEB14D}" name="name"/>
+    <tableColumn id="3" xr3:uid="{87D0F82F-7AA7-42C7-8EF1-4DC4F46D9BE7}" name="data_type" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{61ABEDD8-E9F2-4144-990B-CF7192ACDB9F}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DBF25A28-C3F3-47A6-AAA3-32D52C013156}" name="Table310" displayName="Table310" ref="K62:N91" totalsRowShown="0" headerRowDxfId="23" tableBorderDxfId="22">
+  <autoFilter ref="K62:N91" xr:uid="{F19E2CF6-3757-4D92-AEAD-09E754C70728}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{AB68C20E-43BC-472C-83CB-56603F5EEBAF}" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8E5E999D-250E-4F9E-874D-A5810853799C}" name="name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{AFC8C3EE-8D55-4684-9901-C4F9820CB500}" name="data_type"/>
+    <tableColumn id="4" xr3:uid="{49C62CFF-4BB6-438D-86F6-A4520CE372E5}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{255587E1-EE08-40C3-A18E-B379E917E5D2}" name="Table411" displayName="Table411" ref="D62:G76" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="D62:G76" xr:uid="{9BC78E0C-9693-4485-BCAF-A9C219AFEB5D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E7CD4B6B-6DC4-4871-B665-E4B5803E6EBE}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{F09D1ED3-2AC6-4EB2-9FD1-DD4E3919529A}" name="name"/>
+    <tableColumn id="3" xr3:uid="{F6DB97F7-1127-48C2-8CE5-40ED4F0B2F31}" name="data_type" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{40E9C49B-38F0-49EB-99A6-74DDC217059D}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0B8244D7-D24D-40CD-B587-A4C2ACBE69BF}" name="Table12" displayName="Table12" ref="R62:U80" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="R62:U80" xr:uid="{576BE979-472E-4EBD-928A-76168C8C6E26}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{657648A1-16BC-4CE9-A338-F65F2250009E}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{B5B151C6-94DB-4504-A89E-18D8ADF3353F}" name="name"/>
+    <tableColumn id="3" xr3:uid="{2D6DFBAE-C0DB-4325-9EDB-B5A062A065DB}" name="data_type" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{EBCC8CC6-416D-41FC-A8B1-7762DE3B0A77}" name="key"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5365,15 +8668,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5474,33 +8777,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="I2" s="25" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="I2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="Q2" s="25" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
+      <c r="Q2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -6432,15 +9735,15 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -6464,15 +9767,15 @@
       <c r="G21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -7062,15 +10365,15 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
       <c r="I37" s="4">
         <v>15</v>
       </c>
@@ -7172,15 +10475,15 @@
       <c r="G40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -7878,15 +11181,15 @@
       <c r="G59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I59" s="25" t="s">
+      <c r="I59" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="41"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -8471,15 +11774,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8696,15 +11999,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8921,15 +12224,15 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -9176,15 +12479,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -9644,8 +12947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF477ADD-6D60-4A52-A419-6123334FD593}">
   <dimension ref="D2:Y93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="W44" sqref="W44:W57"/>
+    <sheetView topLeftCell="A43" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72:H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9666,24 +12969,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="L2" s="25" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="L2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="28"/>
-      <c r="V2" s="25" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="42"/>
+      <c r="V2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="27"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="41"/>
     </row>
     <row r="3" spans="4:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E3" s="15" t="s">
@@ -10170,18 +13473,18 @@
     </row>
     <row r="19" spans="4:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="L19" s="25" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="L19" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="28"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="42"/>
       <c r="V19" s="7">
         <v>16</v>
       </c>
@@ -10242,12 +13545,12 @@
       <c r="O21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="25" t="s">
+      <c r="V21" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="27"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="41"/>
     </row>
     <row r="22" spans="4:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E22" s="4">
@@ -10522,12 +13825,12 @@
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="6"/>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="28"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="42"/>
       <c r="V31" s="4">
         <v>9</v>
       </c>
@@ -10656,12 +13959,12 @@
       <c r="Y35" s="6"/>
     </row>
     <row r="36" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="28"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="42"/>
       <c r="L36" s="4">
         <v>4</v>
       </c>
@@ -10786,12 +14089,12 @@
         <v>25</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="V40" s="25" t="s">
+      <c r="V40" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="27"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="41"/>
     </row>
     <row r="41" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E41" s="4">
@@ -10856,12 +14159,12 @@
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="6"/>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="28"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="42"/>
       <c r="V43" s="4">
         <v>2</v>
       </c>
@@ -11140,12 +14443,12 @@
       <c r="Y52" s="6"/>
     </row>
     <row r="53" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="28"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="42"/>
       <c r="L53" s="7">
         <v>9</v>
       </c>
@@ -11278,12 +14581,12 @@
         <v>24</v>
       </c>
       <c r="H59" s="6"/>
-      <c r="V59" s="25" t="s">
+      <c r="V59" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="27"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="41"/>
     </row>
     <row r="60" spans="5:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E60" s="4">
@@ -11524,12 +14827,12 @@
       <c r="Y71" s="6"/>
     </row>
     <row r="72" spans="5:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="28"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="42"/>
       <c r="V72" s="4">
         <v>12</v>
       </c>
@@ -11835,12 +15138,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="V21:Y21"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L31:O31"/>
     <mergeCell ref="L43:O43"/>
     <mergeCell ref="V59:Y59"/>
     <mergeCell ref="E72:H72"/>
@@ -11848,6 +15145,12 @@
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E53:H53"/>
     <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="V21:Y21"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L31:O31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -11860,7 +15163,7 @@
   <dimension ref="C2:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C2" sqref="C2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11870,24 +15173,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="I2" s="25" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="I2" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="28"/>
-      <c r="O2" s="25" t="s">
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="42"/>
+      <c r="O2" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="28"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="42"/>
     </row>
     <row r="3" spans="3:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
@@ -12538,4 +15841,5130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01485E71-9668-4377-977D-1225B1F57AD1}">
+  <dimension ref="C2:W162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="P142" sqref="P142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="27"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="28"/>
+    </row>
+    <row r="5" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="27"/>
+      <c r="D5" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="28"/>
+    </row>
+    <row r="6" spans="3:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="27"/>
+      <c r="D6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="28"/>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="27"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" s="28"/>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="27"/>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="28"/>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="27"/>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V9" s="28"/>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="27"/>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5">
+        <v>4</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="27"/>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <v>6</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5">
+        <v>5</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V11" s="28"/>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="27"/>
+      <c r="D12" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5">
+        <v>6</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V12" s="28"/>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="27"/>
+      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10">
+        <v>8</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5">
+        <v>7</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" s="28"/>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="27"/>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10">
+        <v>9</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5">
+        <v>8</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V14" s="28"/>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10">
+        <v>10</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="8">
+        <v>9</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V15" s="28"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="27"/>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10">
+        <v>11</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="28"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="27"/>
+      <c r="D17" s="5">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10">
+        <v>12</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="28"/>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="27"/>
+      <c r="D18" s="5">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10">
+        <v>13</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="28"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="27"/>
+      <c r="D19" s="5">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10">
+        <v>14</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="28"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
+      <c r="D20" s="5">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="10">
+        <v>15</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="28"/>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="27"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="10">
+        <v>16</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="28"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="27"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="10">
+        <v>17</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="28"/>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="27"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="10">
+        <v>18</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="28"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="27"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10">
+        <v>19</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="28"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10">
+        <v>20</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="28"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="10">
+        <v>21</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="28"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="27"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="33">
+        <v>22</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="28"/>
+    </row>
+    <row r="28" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="31"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="46"/>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="28"/>
+    </row>
+    <row r="33" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="27"/>
+      <c r="D33" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="28"/>
+    </row>
+    <row r="34" spans="3:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V34" s="28"/>
+    </row>
+    <row r="35" spans="3:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="27"/>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5">
+        <v>1</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U35" s="5"/>
+      <c r="V35" s="28"/>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="27"/>
+      <c r="D36" s="34">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5">
+        <v>2</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V36" s="28"/>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="27"/>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
+        <v>4</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5">
+        <v>3</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V37" s="28"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="27"/>
+      <c r="D38" s="5">
+        <v>3</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <v>5</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5">
+        <v>4</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V38" s="28"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="27"/>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="10">
+        <v>7</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5">
+        <v>5</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V39" s="28"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="27"/>
+      <c r="D40" s="5">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="10">
+        <v>8</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5">
+        <v>6</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V40" s="28"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="27"/>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="10">
+        <v>9</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5">
+        <v>7</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V41" s="28"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="27"/>
+      <c r="D42" s="5">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="10">
+        <v>10</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5">
+        <v>8</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V42" s="28"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="27"/>
+      <c r="D43" s="5">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="10">
+        <v>11</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="8">
+        <v>9</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="V43" s="28"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C44" s="27"/>
+      <c r="D44" s="5">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="10">
+        <v>12</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="28"/>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C45" s="27"/>
+      <c r="D45" s="5">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="10">
+        <v>13</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="28"/>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C46" s="27"/>
+      <c r="D46" s="5">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="10">
+        <v>14</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="28"/>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C47" s="27"/>
+      <c r="D47" s="5">
+        <v>12</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="10">
+        <v>15</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="28"/>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C48" s="27"/>
+      <c r="D48" s="5">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="10">
+        <v>16</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M48" t="s">
+        <v>171</v>
+      </c>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="28"/>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C49" s="27"/>
+      <c r="D49" s="5">
+        <v>14</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="10">
+        <v>17</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" t="s">
+        <v>171</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="28"/>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C50" s="27"/>
+      <c r="D50" s="5">
+        <v>15</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="10">
+        <v>18</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="M50" t="s">
+        <v>171</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="28"/>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C51" s="27"/>
+      <c r="D51" s="5">
+        <v>16</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="10">
+        <v>19</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M51" t="s">
+        <v>171</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="28"/>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C52" s="27"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="10">
+        <v>20</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" t="s">
+        <v>171</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="28"/>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C53" s="27"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="10">
+        <v>21</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M53" t="s">
+        <v>171</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="28"/>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C54" s="27"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="28"/>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C55" s="27"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="28"/>
+    </row>
+    <row r="56" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="31"/>
+    </row>
+    <row r="58" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C59" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="50"/>
+      <c r="Q59" s="50"/>
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+      <c r="T59" s="50"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C60" s="27"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="5"/>
+    </row>
+    <row r="61" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="27"/>
+      <c r="D61" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="28"/>
+    </row>
+    <row r="62" spans="3:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="27"/>
+      <c r="D62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N62" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="28"/>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C63" s="27"/>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5">
+        <v>1</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5">
+        <v>1</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T63" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V63" s="28"/>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C64" s="27"/>
+      <c r="D64" s="5">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5">
+        <v>2</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5">
+        <v>2</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U64" s="5"/>
+      <c r="V64" s="28"/>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C65" s="27"/>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5">
+        <v>4</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5">
+        <v>3</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U65" s="5"/>
+      <c r="V65" s="28"/>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C66" s="27"/>
+      <c r="D66" s="5">
+        <v>4</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
+        <v>5</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5">
+        <v>4</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U66" s="5"/>
+      <c r="V66" s="28"/>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C67" s="27"/>
+      <c r="D67" s="5">
+        <v>5</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5">
+        <v>6</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5">
+        <v>5</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U67" s="5"/>
+      <c r="V67" s="28"/>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C68" s="27"/>
+      <c r="D68" s="5">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5">
+        <v>7</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5">
+        <v>6</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U68" s="5"/>
+      <c r="V68" s="28"/>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C69" s="27"/>
+      <c r="D69" s="5">
+        <v>7</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="10">
+        <v>8</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5">
+        <v>7</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U69" s="5"/>
+      <c r="V69" s="28"/>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C70" s="27"/>
+      <c r="D70" s="5">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="10">
+        <v>9</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5">
+        <v>8</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U70" s="5"/>
+      <c r="V70" s="28"/>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C71" s="27"/>
+      <c r="D71" s="5">
+        <v>9</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="10">
+        <v>10</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5">
+        <v>9</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U71" s="5"/>
+      <c r="V71" s="28"/>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C72" s="27"/>
+      <c r="D72" s="5">
+        <v>10</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="10">
+        <v>11</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5">
+        <v>10</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U72" s="5"/>
+      <c r="V72" s="28"/>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C73" s="27"/>
+      <c r="D73" s="5">
+        <v>11</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="10">
+        <v>12</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5">
+        <v>11</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U73" s="5"/>
+      <c r="V73" s="28"/>
+    </row>
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C74" s="27"/>
+      <c r="D74" s="5">
+        <v>12</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="10">
+        <v>13</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5">
+        <v>12</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U74" s="5"/>
+      <c r="V74" s="28"/>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C75" s="27"/>
+      <c r="D75" s="5">
+        <v>13</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="10">
+        <v>14</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5">
+        <v>13</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U75" s="5"/>
+      <c r="V75" s="28"/>
+    </row>
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C76" s="27"/>
+      <c r="D76" s="5">
+        <v>14</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="10">
+        <v>15</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5">
+        <v>14</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U76" s="5"/>
+      <c r="V76" s="28"/>
+    </row>
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C77" s="27"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="10">
+        <v>16</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5">
+        <v>15</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U77" s="5"/>
+      <c r="V77" s="28"/>
+    </row>
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C78" s="27"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="10">
+        <v>17</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5">
+        <v>16</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U78" s="5"/>
+      <c r="V78" s="28"/>
+    </row>
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C79" s="27"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="10">
+        <v>18</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5">
+        <v>17</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U79" s="5"/>
+      <c r="V79" s="28"/>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C80" s="27"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="10">
+        <v>19</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5">
+        <v>18</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="U80" s="5"/>
+      <c r="V80" s="28"/>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C81" s="27"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="10">
+        <v>20</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M81" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="V81" s="28"/>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C82" s="27"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="10">
+        <v>21</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="V82" s="28"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C83" s="27"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="33">
+        <v>22</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="5"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="28"/>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C84" s="27"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="33">
+        <v>23</v>
+      </c>
+      <c r="L84" t="s">
+        <v>230</v>
+      </c>
+      <c r="M84" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="5"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="28"/>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C85" s="27"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="10">
+        <v>24</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M85" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="28"/>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C86" s="27"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="10">
+        <v>25</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="28"/>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C87" s="27"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="33">
+        <v>26</v>
+      </c>
+      <c r="L87" t="s">
+        <v>233</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="V87" s="28"/>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C88" s="27"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="33">
+        <v>27</v>
+      </c>
+      <c r="L88" t="s">
+        <v>234</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="V88" s="28"/>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C89" s="27"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="33">
+        <v>28</v>
+      </c>
+      <c r="L89" t="s">
+        <v>235</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="V89" s="28"/>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C90" s="27"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="33">
+        <v>29</v>
+      </c>
+      <c r="L90" t="s">
+        <v>236</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="V90" s="28"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C91" s="27"/>
+      <c r="K91" s="33">
+        <v>30</v>
+      </c>
+      <c r="L91" t="s">
+        <v>193</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="V91" s="28"/>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C92" s="27"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="V92" s="28"/>
+    </row>
+    <row r="93" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="29"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="30"/>
+      <c r="V93" s="31"/>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C96" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
+      <c r="I96" s="45"/>
+      <c r="J96" s="45"/>
+      <c r="K96" s="45"/>
+      <c r="L96" s="45"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="45"/>
+      <c r="V96" s="46"/>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C97" s="27"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="28"/>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C98" s="27"/>
+      <c r="D98" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="S98" s="48"/>
+      <c r="T98" s="48"/>
+      <c r="U98" s="49"/>
+      <c r="V98" s="28"/>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C99" s="27"/>
+      <c r="D99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V99" s="28"/>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C100" s="27"/>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5">
+        <v>1</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5">
+        <v>1</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T100" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="U100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V100" s="28"/>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C101" s="27"/>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5">
+        <v>2</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5">
+        <v>2</v>
+      </c>
+      <c r="S101" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T101" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U101" s="5"/>
+      <c r="V101" s="28"/>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C102" s="27"/>
+      <c r="D102" s="5">
+        <v>3</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5">
+        <v>3</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5">
+        <v>3</v>
+      </c>
+      <c r="S102" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="T102" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U102" s="5"/>
+      <c r="V102" s="28"/>
+    </row>
+    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C103" s="27"/>
+      <c r="D103" s="5">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5">
+        <v>4</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5">
+        <v>4</v>
+      </c>
+      <c r="S103" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="T103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U103" s="5"/>
+      <c r="V103" s="28"/>
+    </row>
+    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C104" s="27"/>
+      <c r="D104" s="5">
+        <v>5</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5">
+        <v>5</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5">
+        <v>5</v>
+      </c>
+      <c r="S104" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T104" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U104" s="5"/>
+      <c r="V104" s="28"/>
+    </row>
+    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C105" s="27"/>
+      <c r="D105" s="5">
+        <v>6</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5">
+        <v>6</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M105" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5">
+        <v>6</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T105" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U105" s="5"/>
+      <c r="V105" s="28"/>
+    </row>
+    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C106" s="27"/>
+      <c r="D106" s="5">
+        <v>7</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5">
+        <v>7</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5">
+        <v>7</v>
+      </c>
+      <c r="S106" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="T106" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U106" s="5"/>
+      <c r="V106" s="28"/>
+    </row>
+    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C107" s="27"/>
+      <c r="D107" s="5">
+        <v>8</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5">
+        <v>8</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5">
+        <v>8</v>
+      </c>
+      <c r="S107" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T107" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U107" s="5"/>
+      <c r="V107" s="28"/>
+    </row>
+    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C108" s="27"/>
+      <c r="D108" s="5">
+        <v>9</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5">
+        <v>9</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5">
+        <v>9</v>
+      </c>
+      <c r="S108" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="T108" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U108" s="5"/>
+      <c r="V108" s="28"/>
+    </row>
+    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C109" s="27"/>
+      <c r="D109" s="5">
+        <v>10</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5">
+        <v>10</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5">
+        <v>10</v>
+      </c>
+      <c r="S109" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T109" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U109" s="5"/>
+      <c r="V109" s="28"/>
+    </row>
+    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C110" s="27"/>
+      <c r="D110" s="5">
+        <v>11</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5">
+        <v>11</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5">
+        <v>11</v>
+      </c>
+      <c r="S110" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="T110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U110" s="5"/>
+      <c r="V110" s="28"/>
+    </row>
+    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C111" s="27"/>
+      <c r="D111" s="5">
+        <v>12</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5">
+        <v>12</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5">
+        <v>12</v>
+      </c>
+      <c r="S111" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T111" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U111" s="5"/>
+      <c r="V111" s="28"/>
+    </row>
+    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C112" s="27"/>
+      <c r="D112" s="5">
+        <v>13</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5">
+        <v>13</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5">
+        <v>13</v>
+      </c>
+      <c r="S112" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T112" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U112" s="5"/>
+      <c r="V112" s="28"/>
+    </row>
+    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C113" s="27"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5">
+        <v>14</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5">
+        <v>14</v>
+      </c>
+      <c r="S113" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T113" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U113" s="5"/>
+      <c r="V113" s="28"/>
+    </row>
+    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C114" s="27"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5">
+        <v>15</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5">
+        <v>15</v>
+      </c>
+      <c r="S114" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T114" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U114" s="5"/>
+      <c r="V114" s="28"/>
+    </row>
+    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C115" s="27"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5">
+        <v>16</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5">
+        <v>16</v>
+      </c>
+      <c r="S115" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T115" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U115" s="5"/>
+      <c r="V115" s="28"/>
+    </row>
+    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C116" s="27"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5">
+        <v>17</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5">
+        <v>17</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T116" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U116" s="5"/>
+      <c r="V116" s="28"/>
+    </row>
+    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C117" s="27"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="10">
+        <v>18</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5">
+        <v>18</v>
+      </c>
+      <c r="S117" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T117" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U117" s="5"/>
+      <c r="V117" s="28"/>
+    </row>
+    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C118" s="27"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="10">
+        <v>19</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="R118" s="5"/>
+      <c r="S118" s="5"/>
+      <c r="T118" s="5"/>
+      <c r="U118" s="5"/>
+      <c r="V118" s="28"/>
+    </row>
+    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C119" s="27"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="10">
+        <v>20</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="R119" s="5"/>
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+      <c r="U119" s="5"/>
+      <c r="V119" s="28"/>
+    </row>
+    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C120" s="27"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="10">
+        <v>21</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+      <c r="R120" s="5"/>
+      <c r="S120" s="5"/>
+      <c r="T120" s="5"/>
+      <c r="U120" s="5"/>
+      <c r="V120" s="28"/>
+    </row>
+    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C121" s="27"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="10">
+        <v>22</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="28"/>
+    </row>
+    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C122" s="27"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="10">
+        <v>23</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+      <c r="R122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="5"/>
+      <c r="U122" s="5"/>
+      <c r="V122" s="28"/>
+    </row>
+    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C123" s="27"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="10">
+        <v>24</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="28"/>
+    </row>
+    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C124" s="27"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="10">
+        <v>25</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="28"/>
+    </row>
+    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C125" s="27"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="10">
+        <v>26</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="5"/>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
+      <c r="T125" s="5"/>
+      <c r="U125" s="5"/>
+      <c r="V125" s="28"/>
+    </row>
+    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C126" s="27"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="10">
+        <v>27</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="28"/>
+    </row>
+    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C127" s="27"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="10">
+        <v>28</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N127" s="5"/>
+      <c r="O127" s="5"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="T127" s="5"/>
+      <c r="U127" s="5"/>
+      <c r="V127" s="28"/>
+    </row>
+    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C128" s="27"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="10">
+        <v>29</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+      <c r="T128" s="5"/>
+      <c r="U128" s="5"/>
+      <c r="V128" s="28"/>
+    </row>
+    <row r="129" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="29"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="30"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="30"/>
+      <c r="P129" s="30"/>
+      <c r="Q129" s="30"/>
+      <c r="R129" s="30"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="30"/>
+      <c r="U129" s="30"/>
+      <c r="V129" s="31"/>
+    </row>
+    <row r="131" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C132" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
+      <c r="I132" s="45"/>
+      <c r="J132" s="45"/>
+      <c r="K132" s="45"/>
+      <c r="L132" s="45"/>
+      <c r="M132" s="45"/>
+      <c r="N132" s="45"/>
+      <c r="O132" s="45"/>
+      <c r="P132" s="45"/>
+      <c r="Q132" s="45"/>
+      <c r="R132" s="45"/>
+      <c r="S132" s="45"/>
+      <c r="T132" s="45"/>
+      <c r="U132" s="45"/>
+      <c r="V132" s="46"/>
+    </row>
+    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C133" s="27"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="O133" s="5"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="T133" s="5"/>
+      <c r="U133" s="5"/>
+      <c r="V133" s="28"/>
+    </row>
+    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C134" s="27"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="5"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="T134" s="5"/>
+      <c r="U134" s="5"/>
+      <c r="V134" s="28"/>
+    </row>
+    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C135" s="27"/>
+      <c r="D135" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E135" s="52"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="S135" s="48"/>
+      <c r="T135" s="48"/>
+      <c r="U135" s="49"/>
+      <c r="V135" s="28"/>
+    </row>
+    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C136" s="27"/>
+      <c r="D136" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O136" s="5"/>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="S136" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="T136" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="U136" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="V136" s="28"/>
+    </row>
+    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C137" s="27"/>
+      <c r="D137" s="5">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="5">
+        <v>1</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M137" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O137" s="5"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="37">
+        <v>1</v>
+      </c>
+      <c r="S137" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="T137" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="U137" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V137" s="28"/>
+    </row>
+    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C138" s="27"/>
+      <c r="D138" s="5">
+        <v>2</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="5">
+        <v>2</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N138" s="5"/>
+      <c r="O138" s="5"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="37">
+        <v>2</v>
+      </c>
+      <c r="S138" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="T138" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U138" s="37"/>
+      <c r="V138" s="28"/>
+    </row>
+    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C139" s="27"/>
+      <c r="D139" s="5">
+        <v>3</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="5">
+        <v>3</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M139" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N139" s="5"/>
+      <c r="O139" s="5"/>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="R139" s="37">
+        <v>3</v>
+      </c>
+      <c r="S139" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="T139" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U139" s="37"/>
+      <c r="V139" s="28"/>
+    </row>
+    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C140" s="27"/>
+      <c r="D140" s="5">
+        <v>4</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5">
+        <v>4</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="5"/>
+      <c r="O140" s="5"/>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="R140" s="37">
+        <v>4</v>
+      </c>
+      <c r="S140" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="T140" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U140" s="37"/>
+      <c r="V140" s="28"/>
+    </row>
+    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C141" s="27"/>
+      <c r="D141" s="5">
+        <v>5</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="5">
+        <v>5</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M141" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N141" s="5"/>
+      <c r="O141" s="5"/>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="R141" s="37">
+        <v>5</v>
+      </c>
+      <c r="S141" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="T141" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U141" s="37"/>
+      <c r="V141" s="28"/>
+    </row>
+    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C142" s="27"/>
+      <c r="D142" s="5">
+        <v>6</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5">
+        <v>6</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M142" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" s="5"/>
+      <c r="O142" s="5"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="37">
+        <v>6</v>
+      </c>
+      <c r="S142" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="T142" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U142" s="37"/>
+      <c r="V142" s="28"/>
+    </row>
+    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C143" s="27"/>
+      <c r="D143" s="5">
+        <v>7</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5">
+        <v>7</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M143" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="5"/>
+      <c r="O143" s="5"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="37">
+        <v>7</v>
+      </c>
+      <c r="S143" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="T143" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U143" s="37"/>
+      <c r="V143" s="28"/>
+    </row>
+    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C144" s="27"/>
+      <c r="D144" s="5">
+        <v>8</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5">
+        <v>8</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N144" s="5"/>
+      <c r="O144" s="5"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="37">
+        <v>8</v>
+      </c>
+      <c r="S144" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="T144" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U144" s="37"/>
+      <c r="V144" s="28"/>
+    </row>
+    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C145" s="27"/>
+      <c r="D145" s="8">
+        <v>9</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5">
+        <v>9</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N145" s="5"/>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="37">
+        <v>9</v>
+      </c>
+      <c r="S145" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="T145" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U145" s="37"/>
+      <c r="V145" s="28"/>
+    </row>
+    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C146" s="27"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5">
+        <v>10</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N146" s="5"/>
+      <c r="O146" s="5"/>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="37">
+        <v>10</v>
+      </c>
+      <c r="S146" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="T146" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U146" s="37"/>
+      <c r="V146" s="28"/>
+    </row>
+    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C147" s="27"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5">
+        <v>11</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="37">
+        <v>11</v>
+      </c>
+      <c r="S147" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="T147" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U147" s="37"/>
+      <c r="V147" s="28"/>
+    </row>
+    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C148" s="27"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5">
+        <v>12</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="37">
+        <v>12</v>
+      </c>
+      <c r="S148" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="T148" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U148" s="37"/>
+      <c r="V148" s="28"/>
+    </row>
+    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C149" s="27"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5">
+        <v>13</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="37">
+        <v>13</v>
+      </c>
+      <c r="S149" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="T149" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U149" s="37"/>
+      <c r="V149" s="28"/>
+    </row>
+    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C150" s="27"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5">
+        <v>14</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="37">
+        <v>14</v>
+      </c>
+      <c r="S150" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="T150" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U150" s="37"/>
+      <c r="V150" s="28"/>
+    </row>
+    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C151" s="27"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5">
+        <v>15</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="37">
+        <v>15</v>
+      </c>
+      <c r="S151" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="T151" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U151" s="37"/>
+      <c r="V151" s="28"/>
+    </row>
+    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C152" s="27"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5">
+        <v>16</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="37">
+        <v>16</v>
+      </c>
+      <c r="S152" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="T152" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U152" s="37"/>
+      <c r="V152" s="28"/>
+    </row>
+    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C153" s="27"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5">
+        <v>17</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N153" s="5"/>
+      <c r="O153" s="5"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="37">
+        <v>17</v>
+      </c>
+      <c r="S153" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="T153" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U153" s="37"/>
+      <c r="V153" s="28"/>
+    </row>
+    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C154" s="27"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5">
+        <v>18</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N154" s="5"/>
+      <c r="O154" s="5"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="37">
+        <v>18</v>
+      </c>
+      <c r="S154" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="T154" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="U154" s="37"/>
+      <c r="V154" s="28"/>
+    </row>
+    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C155" s="27"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5">
+        <v>19</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="M155" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="28"/>
+    </row>
+    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C156" s="27"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5">
+        <v>20</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N156" s="5"/>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="28"/>
+    </row>
+    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C157" s="27"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5">
+        <v>21</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+      <c r="U157" s="5"/>
+      <c r="V157" s="28"/>
+    </row>
+    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C158" s="27"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="5">
+        <v>22</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N158" s="5"/>
+      <c r="O158" s="5"/>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+      <c r="R158" s="5"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+      <c r="U158" s="5"/>
+      <c r="V158" s="28"/>
+    </row>
+    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C159" s="27"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="5">
+        <v>23</v>
+      </c>
+      <c r="L159" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M159" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5"/>
+      <c r="V159" s="28"/>
+    </row>
+    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C160" s="27"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="5">
+        <v>24</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="M160" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+      <c r="R160" s="5"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+      <c r="U160" s="5"/>
+      <c r="V160" s="28"/>
+    </row>
+    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C161" s="27"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+      <c r="R161" s="5"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+      <c r="U161" s="5"/>
+      <c r="V161" s="28"/>
+    </row>
+    <row r="162" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="29"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="30"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
+      <c r="M162" s="30"/>
+      <c r="N162" s="30"/>
+      <c r="O162" s="30"/>
+      <c r="P162" s="30"/>
+      <c r="Q162" s="30"/>
+      <c r="R162" s="30"/>
+      <c r="S162" s="30"/>
+      <c r="T162" s="30"/>
+      <c r="U162" s="30"/>
+      <c r="V162" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C132:V132"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="K135:N135"/>
+    <mergeCell ref="C3:V3"/>
+    <mergeCell ref="C31:V31"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="C59:V59"/>
+    <mergeCell ref="C96:V96"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="R33:U33"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="15">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/ERD/h_a_ERD.xlsx
+++ b/ERD/h_a_ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents1\GitHub\Health_and_Avocados\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9FDCA9-B9C4-474B-8D2C-3FEB2233CF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E25E39-FB79-49D7-A2D7-7E3EBC29D878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="1350" windowWidth="33285" windowHeight="19335" firstSheet="3" activeTab="6" xr2:uid="{A1F7889D-63F4-46FB-A579-0196500EE5CA}"/>
   </bookViews>
@@ -1120,6 +1120,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,9 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15915,7 +15915,7 @@
     </row>
     <row r="5" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="27"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E5" s="53"/>
@@ -15924,7 +15924,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="48" t="s">
         <v>156</v>
       </c>
       <c r="L5" s="53"/>
@@ -15933,7 +15933,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="48" t="s">
         <v>208</v>
       </c>
       <c r="S5" s="53"/>
@@ -16817,25 +16817,25 @@
     </row>
     <row r="33" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="27"/>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="50"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="47" t="s">
+      <c r="K33" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="47" t="s">
+      <c r="R33" s="48" t="s">
         <v>208</v>
       </c>
       <c r="S33" s="53"/>
@@ -17643,13 +17643,13 @@
       <c r="M59" s="45"/>
       <c r="N59" s="45"/>
       <c r="O59" s="45"/>
-      <c r="P59" s="50"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="52"/>
       <c r="W59" s="5"/>
     </row>
     <row r="60" spans="3:23" x14ac:dyDescent="0.25">
@@ -17677,7 +17677,7 @@
     </row>
     <row r="61" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="27"/>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E61" s="53"/>
@@ -17686,16 +17686,16 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="47" t="s">
+      <c r="K61" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="L61" s="48"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="50"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="47" t="s">
+      <c r="R61" s="48" t="s">
         <v>194</v>
       </c>
       <c r="S61" s="53"/>
@@ -18797,30 +18797,30 @@
     </row>
     <row r="98" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C98" s="27"/>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="52" t="s">
+      <c r="K98" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="52"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="N98" s="47"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
-      <c r="R98" s="47" t="s">
+      <c r="R98" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="S98" s="48"/>
-      <c r="T98" s="48"/>
-      <c r="U98" s="49"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="49"/>
+      <c r="U98" s="50"/>
       <c r="V98" s="28"/>
     </row>
     <row r="99" spans="3:22" x14ac:dyDescent="0.25">
@@ -19966,30 +19966,30 @@
     </row>
     <row r="135" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C135" s="27"/>
-      <c r="D135" s="52" t="s">
+      <c r="D135" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="52"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="52" t="s">
+      <c r="K135" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="L135" s="52"/>
-      <c r="M135" s="52"/>
-      <c r="N135" s="52"/>
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
-      <c r="R135" s="47" t="s">
+      <c r="R135" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="S135" s="48"/>
-      <c r="T135" s="48"/>
-      <c r="U135" s="49"/>
+      <c r="S135" s="49"/>
+      <c r="T135" s="49"/>
+      <c r="U135" s="50"/>
       <c r="V135" s="28"/>
     </row>
     <row r="136" spans="3:22" x14ac:dyDescent="0.25">
@@ -20924,13 +20924,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C132:V132"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="R135:U135"/>
-    <mergeCell ref="K135:N135"/>
     <mergeCell ref="C3:V3"/>
     <mergeCell ref="C31:V31"/>
     <mergeCell ref="K33:N33"/>
@@ -20944,6 +20937,13 @@
     <mergeCell ref="R5:U5"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="R33:U33"/>
+    <mergeCell ref="C132:V132"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="R135:U135"/>
+    <mergeCell ref="K135:N135"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
